--- a/AAII_Financials/Quarterly/DOCU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOCU_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>274900</v>
+      </c>
+      <c r="E8" s="3">
         <v>249500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>235600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>214000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>199700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>178400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>167000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>155800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>148900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>130600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>125500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>113500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>108400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>68100</v>
+      </c>
+      <c r="E9" s="3">
         <v>62000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>61200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>52000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>52700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>45100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>36400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>58300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>31500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>31200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>28500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>27100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>28900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>206800</v>
+      </c>
+      <c r="E10" s="3">
         <v>187500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>174400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>162000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>147000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>133300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>130600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>97500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>117400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>99400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>97000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>86400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>79500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>52100</v>
+      </c>
+      <c r="E12" s="3">
         <v>48800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>47500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>37200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>42900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>38400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>33800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>70900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>23400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>22500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>23800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>22700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>21300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1013,52 +1033,58 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="E15" s="3">
         <v>3000</v>
       </c>
       <c r="F15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G15" s="3">
         <v>3100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>800</v>
       </c>
       <c r="J15" s="3">
         <v>800</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="K15" s="3">
+        <v>800</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="3">
         <v>2500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>800</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>317200</v>
+      </c>
+      <c r="E17" s="3">
         <v>293500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>256400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>262400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>236800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>204800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>423400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>155100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>142900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>139300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>132800</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-44000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-64700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-42400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-62700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-58400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-37800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-267600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-19300</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,119 +1211,126 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E20" s="3">
         <v>5800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-25500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-47900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-25200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-45800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-44700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-27600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-261200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-11700</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E22" s="3">
         <v>7400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3500</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
@@ -1305,101 +1345,110 @@
         <v>200</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-45600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-67500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-44400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-64900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-58500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-34800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-270000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-19500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-22500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1300</v>
       </c>
       <c r="G24" s="3">
         <v>1300</v>
       </c>
       <c r="H24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I24" s="3">
         <v>-5700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-47400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-46600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-68600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-45700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-66200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-52800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-36700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-270700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-19400</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-47400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-46600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-68600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-45700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-66200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-52800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-36700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-271000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-19700</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-47400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-46600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-68600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-45700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-66200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-52800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-36700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-271000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-19700</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-47400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-46600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-68600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-45700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-66200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-52800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-36700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-271000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-19700</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,35 +2053,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>241200</v>
+      </c>
+      <c r="E41" s="3">
         <v>197700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>224300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>236500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>517800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1094100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>818800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>269400</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2011,26 +2098,29 @@
       <c r="P41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>414900</v>
+      </c>
+      <c r="E42" s="3">
         <v>456100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>526000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>515600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>251200</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>11</v>
       </c>
@@ -2046,8 +2136,8 @@
       <c r="M42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2055,35 +2145,38 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>250300</v>
+      </c>
+      <c r="E43" s="3">
         <v>177400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>154200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>130500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>185200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>142700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>122100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>116200</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,35 +2239,38 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E45" s="3">
         <v>38200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>39000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>39500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>30300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>27100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>30100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2187,35 +2286,38 @@
       <c r="P45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>943900</v>
+      </c>
+      <c r="E46" s="3">
         <v>869400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>943500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>922100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>984500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1265500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>968100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>415700</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>11</v>
       </c>
@@ -2231,26 +2333,29 @@
       <c r="P46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>240600</v>
+      </c>
+      <c r="E47" s="3">
         <v>259000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>181400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>186000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>164200</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2266,8 +2371,8 @@
       <c r="M47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2275,35 +2380,38 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>278100</v>
+      </c>
+      <c r="E48" s="3">
         <v>242500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>229400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>227500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>75800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>74000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>60400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>60100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>11</v>
       </c>
@@ -2319,35 +2427,38 @@
       <c r="P48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>251400</v>
+      </c>
+      <c r="E49" s="3">
         <v>255800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>260500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>264300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>269400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>273700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>45500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>47400</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>11</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,35 +2568,38 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>177100</v>
+      </c>
+      <c r="E52" s="3">
         <v>159700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>147000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>138600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>121400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>106300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>95700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>91300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>11</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,35 +2662,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1891100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1786400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1761800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1738400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1615400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1719400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1169700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>614500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>11</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,35 +2749,36 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E57" s="3">
         <v>29100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>23500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>21400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>22100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>16700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>13300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>11</v>
       </c>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,35 +2841,38 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>665800</v>
+      </c>
+      <c r="E59" s="3">
         <v>559400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>550700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>501200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>496700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>412600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>372900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>349200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>11</v>
       </c>
@@ -2751,35 +2888,38 @@
       <c r="P59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>694000</v>
+      </c>
+      <c r="E60" s="3">
         <v>588500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>574100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>522600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>516300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>434600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>389600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>362500</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>11</v>
       </c>
@@ -2795,29 +2935,32 @@
       <c r="P60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>465300</v>
+      </c>
+      <c r="E61" s="3">
         <v>458600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>451900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>445400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>438900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>432600</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2839,35 +2982,38 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>185500</v>
+      </c>
+      <c r="E62" s="3">
         <v>169900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>169100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>172700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>45800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>42100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>36600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>37900</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>11</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,35 +3170,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1344800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1217000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1195200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1140700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1001100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>909300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>426200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>400300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>11</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3189,11 +3357,11 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>547900</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,35 +3424,38 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1137200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1089800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1043200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-974500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-928800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-862500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-809700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-773000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>11</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,35 +3612,38 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>546300</v>
+      </c>
+      <c r="E76" s="3">
         <v>569400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>566700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>597700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>614400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>810200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>743500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-333700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>11</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-47400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-46600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-68600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-45700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-66200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-52800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-36700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-271000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-19700</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E83" s="3">
         <v>12700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>12000</v>
       </c>
       <c r="G83" s="3">
         <v>12000</v>
       </c>
       <c r="H83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I83" s="3">
         <v>10300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7700</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>26400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>45700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>34100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>22700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>15000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>32000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12100</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-14600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-313500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-426400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-227400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3900</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-19600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-13300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-181100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>498100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>530500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>8000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7700</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1700</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-26300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-12200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-281500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-576300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>275300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>549400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>12400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>35300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>14500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>17600</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOCU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOCU_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,231 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>297000</v>
+      </c>
+      <c r="E8" s="3">
         <v>274900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>249500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>235600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>214000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>199700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>178400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>167000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>155800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>148900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>130600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>125500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>113500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>108400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E9" s="3">
         <v>68100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>62000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>61200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>52000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>52700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>45100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>36400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>58300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>31500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>31200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>28500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>27100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>28900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>223000</v>
+      </c>
+      <c r="E10" s="3">
         <v>206800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>187500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>174400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>162000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>147000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>133300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>130600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>97500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>117400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>99400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>97000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>86400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>79500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E12" s="3">
         <v>52100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>48800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>47500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>37200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>42900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>38400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>33800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>70900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>23400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>22500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>23800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>22700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>21300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1036,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1045,46 +1067,49 @@
         <v>2900</v>
       </c>
       <c r="E15" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="F15" s="3">
         <v>3000</v>
       </c>
       <c r="G15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H15" s="3">
         <v>3100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2300</v>
-      </c>
-      <c r="J15" s="3">
-        <v>800</v>
       </c>
       <c r="K15" s="3">
         <v>800</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="L15" s="3">
+        <v>800</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="3">
         <v>2500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>800</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>338900</v>
+      </c>
+      <c r="E17" s="3">
         <v>317200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>293500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>256400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>262400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>236800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>204800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>423400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>155100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>142900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>139300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>132800</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-42300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-44000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-64700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-42400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-62700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-58400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-37800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-267600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-13800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-19300</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,128 +1244,135 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E20" s="3">
         <v>3700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-25400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-25500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-47900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-25200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-45800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-44700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-27600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-261200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-11700</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E22" s="3">
         <v>7500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3500</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
@@ -1348,107 +1387,116 @@
         <v>200</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-46200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-45600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-67500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-44400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-64900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-58500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-34800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-270000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-19500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-22500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1300</v>
       </c>
       <c r="H24" s="3">
         <v>1300</v>
       </c>
       <c r="I24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J24" s="3">
         <v>-5700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-47400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-46600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-68600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-45700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-66200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-52800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-36700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-270700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-12000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-19400</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-47400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-46600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-68600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-45700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-66200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-52800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-36700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-271000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-19700</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-47400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-46600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-68600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-45700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-66200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-52800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-36700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-271000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-19700</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-47400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-46600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-68600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-45700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-66200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-52800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-36700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-271000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-19700</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,38 +2139,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>442200</v>
+      </c>
+      <c r="E41" s="3">
         <v>241200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>197700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>224300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>236500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>517800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1094100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>818800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>269400</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2101,29 +2187,32 @@
       <c r="Q41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>315700</v>
+      </c>
+      <c r="E42" s="3">
         <v>414900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>456100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>526000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>515600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>251200</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>11</v>
       </c>
@@ -2139,8 +2228,8 @@
       <c r="N42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2148,38 +2237,41 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>233800</v>
+      </c>
+      <c r="E43" s="3">
         <v>250300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>177400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>154200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>130500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>185200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>142700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>122100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>116200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2195,8 +2287,11 @@
       <c r="Q43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,38 +2337,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E45" s="3">
         <v>37400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>38200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>39000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>39500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>30300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>28700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>27100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>30100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2289,38 +2387,41 @@
       <c r="Q45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1043200</v>
+      </c>
+      <c r="E46" s="3">
         <v>943900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>869400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>943500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>922100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>984500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1265500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>968100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>415700</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>11</v>
       </c>
@@ -2336,29 +2437,32 @@
       <c r="Q46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>141000</v>
+      </c>
+      <c r="E47" s="3">
         <v>240600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>259000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>181400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>186000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>164200</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2374,8 +2478,8 @@
       <c r="N47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2383,38 +2487,41 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>296300</v>
+      </c>
+      <c r="E48" s="3">
         <v>278100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>242500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>229400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>227500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>75800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>74000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>60400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>60100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>11</v>
       </c>
@@ -2430,38 +2537,41 @@
       <c r="Q48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>245800</v>
+      </c>
+      <c r="E49" s="3">
         <v>251400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>255800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>260500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>264300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>269400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>273700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>45500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>47400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>11</v>
       </c>
@@ -2477,8 +2587,11 @@
       <c r="Q49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,38 +2687,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>195100</v>
+      </c>
+      <c r="E52" s="3">
         <v>177100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>159700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>147000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>138600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>121400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>106300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>95700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>91300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>11</v>
       </c>
@@ -2618,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,38 +2787,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1921500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1891100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1786400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1761800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1738400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1615400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1719400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1169700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>614500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>11</v>
       </c>
@@ -2712,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,38 +2879,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E57" s="3">
         <v>28100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>29100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>23500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>21400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>22100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>13300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>11</v>
       </c>
@@ -2797,8 +2927,11 @@
       <c r="Q57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,38 +2977,41 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>708100</v>
+      </c>
+      <c r="E59" s="3">
         <v>665800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>559400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>550700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>501200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>496700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>412600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>372900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>349200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>11</v>
       </c>
@@ -2891,38 +3027,41 @@
       <c r="Q59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>729600</v>
+      </c>
+      <c r="E60" s="3">
         <v>694000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>588500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>574100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>522600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>516300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>434600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>389600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>362500</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>11</v>
       </c>
@@ -2938,32 +3077,35 @@
       <c r="Q60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>472200</v>
+      </c>
+      <c r="E61" s="3">
         <v>465300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>458600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>451900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>445400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>438900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>432600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2985,38 +3127,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>196900</v>
+      </c>
+      <c r="E62" s="3">
         <v>185500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>169900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>169100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>172700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>45800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>42100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>36600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>37900</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>11</v>
       </c>
@@ -3032,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,38 +3327,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1398700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1344800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1217000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1195200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1140700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1001100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>909300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>426200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>11</v>
       </c>
@@ -3220,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3360,11 +3527,11 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>547900</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,38 +3597,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1185000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1137200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1089800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1043200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-974500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-928800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-862500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-809700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-773000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>11</v>
       </c>
@@ -3474,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,38 +3797,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>522800</v>
+      </c>
+      <c r="E76" s="3">
         <v>546300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>569400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>566700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>597700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>614400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>810200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>743500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-333700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>11</v>
       </c>
@@ -3662,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-47400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-46600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-68600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-45700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-66200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-52800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-36700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-271000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-19700</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E83" s="3">
         <v>13300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>12000</v>
       </c>
       <c r="H83" s="3">
         <v>12000</v>
       </c>
       <c r="I83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J83" s="3">
         <v>10300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7700</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E89" s="3">
         <v>45500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>26400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>45700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>34100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>22700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>32000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>12100</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-30000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>169700</v>
+      </c>
+      <c r="E94" s="3">
         <v>29300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-18200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-313500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-426400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-227400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3900</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-31300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-19600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-13300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-181100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>498100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>530500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>8000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>7700</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1700</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>201000</v>
+      </c>
+      <c r="E102" s="3">
         <v>43400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-26300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-12200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-281500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-576300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>275300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>549400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>35300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>14500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>17600</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOCU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOCU_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>342200</v>
+      </c>
+      <c r="E8" s="3">
         <v>297000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>274900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>249500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>235600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>214000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>199700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>178400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>167000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>155800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>148900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>130600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>125500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>113500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>108400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>90600</v>
+      </c>
+      <c r="E9" s="3">
         <v>74000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>68100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>62000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>61200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>52000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>52700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>45100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>36400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>58300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>31500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>31200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>28500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>27100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>28900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>251600</v>
+      </c>
+      <c r="E10" s="3">
         <v>223000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>206800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>187500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>174400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>162000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>147000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>133300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>130600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>97500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>117400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>99400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>97000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>86400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>79500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>63800</v>
+      </c>
+      <c r="E12" s="3">
         <v>54200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>52100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>48800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>47500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>37200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>42900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>38400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>33800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>70900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>23400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>22500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>23800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>22700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>21300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1058,58 +1078,64 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>2900</v>
+        <v>4300</v>
       </c>
       <c r="E15" s="3">
         <v>2900</v>
       </c>
       <c r="F15" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="G15" s="3">
         <v>3000</v>
       </c>
       <c r="H15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I15" s="3">
         <v>3100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2300</v>
-      </c>
-      <c r="K15" s="3">
-        <v>800</v>
       </c>
       <c r="L15" s="3">
         <v>800</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="M15" s="3">
+        <v>800</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="3">
         <v>2500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>800</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400800</v>
+      </c>
+      <c r="E17" s="3">
         <v>338900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>317200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>293500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>256400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>262400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>236800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>204800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>423400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>155100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>142900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>139300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>132800</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-41900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-42300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-44000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-64700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-42400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-62700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-58400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-37800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-267600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-12300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-13800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-19300</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,137 +1278,144 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E20" s="3">
         <v>3800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-24100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-25400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-25500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-47900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-25200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-45800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-44700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-27600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-261200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E22" s="3">
         <v>7600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3500</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
@@ -1390,113 +1430,122 @@
         <v>200</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-45700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-46200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-45600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-67500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-44400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-64900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-58500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-34800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-270000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-19500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-22500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
         <v>2100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1300</v>
       </c>
       <c r="I24" s="3">
         <v>1300</v>
       </c>
       <c r="J24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-5700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-64600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-47800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-47400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-46600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-68600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-45700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-66200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-52800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-36700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-270700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-14500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-12000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-64600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-47800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-47400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-46600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-68600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-45700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-66200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-52800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-36700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-271000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-14900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-64600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-47800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-47400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-46600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-68600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-45700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-66200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-52800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-36700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-271000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-12400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-64600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-47800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-47400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-46600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-68600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-45700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-66200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-52800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-36700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-271000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-12400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,41 +2226,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>404300</v>
+      </c>
+      <c r="E41" s="3">
         <v>442200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>241200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>197700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>224300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>236500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>517800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1094100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>818800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>269400</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2190,32 +2277,35 @@
       <c r="R41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>269800</v>
+      </c>
+      <c r="E42" s="3">
         <v>315700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>414900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>456100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>526000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>515600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>251200</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>11</v>
       </c>
@@ -2231,8 +2321,8 @@
       <c r="O42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2240,41 +2330,44 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>241500</v>
+      </c>
+      <c r="E43" s="3">
         <v>233800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>250300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>177400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>154200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>130500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>185200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>142700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>122100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>116200</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,41 +2436,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E45" s="3">
         <v>51500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>37400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>38200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>39000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>39500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>30300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>28700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>27100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>30100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2390,41 +2489,44 @@
       <c r="R45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>968000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1043200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>943900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>869400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>943500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>922100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>984500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1265500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>968100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>415700</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>11</v>
       </c>
@@ -2440,32 +2542,35 @@
       <c r="R46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>67100</v>
+      </c>
+      <c r="E47" s="3">
         <v>141000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>240600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>259000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>181400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>186000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>164200</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2481,8 +2586,8 @@
       <c r="O47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2490,41 +2595,44 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>319000</v>
+      </c>
+      <c r="E48" s="3">
         <v>296300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>278100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>242500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>229400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>227500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>75800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>74000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>60400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>60100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>11</v>
       </c>
@@ -2540,41 +2648,44 @@
       <c r="R48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>485100</v>
+      </c>
+      <c r="E49" s="3">
         <v>245800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>251400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>255800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>260500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>264300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>269400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>273700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>45500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>47400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>11</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,41 +2807,44 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>214200</v>
+      </c>
+      <c r="E52" s="3">
         <v>195100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>177100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>159700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>147000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>138600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>121400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>106300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>95700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>91300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>11</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,41 +2913,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2053300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1921500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1891100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1786400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1761800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1738400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1615400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1719400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1169700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>614500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>11</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,41 +3010,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E57" s="3">
         <v>21500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>28100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>29100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>23500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>21400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>19600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>22100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13300</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>11</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,41 +3114,44 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>821000</v>
+      </c>
+      <c r="E59" s="3">
         <v>708100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>665800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>559400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>550700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>501200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>496700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>412600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>372900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>349200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>11</v>
       </c>
@@ -3030,41 +3167,44 @@
       <c r="R59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>854000</v>
+      </c>
+      <c r="E60" s="3">
         <v>729600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>694000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>588500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>574100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>522600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>516300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>434600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>389600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>362500</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>11</v>
       </c>
@@ -3080,35 +3220,38 @@
       <c r="R60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>479100</v>
+      </c>
+      <c r="E61" s="3">
         <v>472200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>465300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>458600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>451900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>445400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>438900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>432600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3130,41 +3273,44 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>218300</v>
+      </c>
+      <c r="E62" s="3">
         <v>196900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>185500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>169900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>169100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>172700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>45800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>42100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>36600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>37900</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>11</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,41 +3485,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1551400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1398700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1344800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1217000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1195200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1140700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1001100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>909300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>426200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>400300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>11</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3530,11 +3698,11 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>547900</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,41 +3771,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1249500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1185000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1137200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1089800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1043200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-974500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-928800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-862500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-809700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-773000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>11</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,41 +3983,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>501900</v>
+      </c>
+      <c r="E76" s="3">
         <v>522800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>546300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>569400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>566700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>597700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>614400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>810200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>743500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-333700</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>11</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-64600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-47800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-47400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-46600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-68600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-45700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-66200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-52800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-36700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-271000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-12400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E83" s="3">
         <v>14000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>12000</v>
       </c>
       <c r="I83" s="3">
         <v>12000</v>
       </c>
       <c r="J83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K83" s="3">
         <v>10300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7700</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>11</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>118100</v>
+      </c>
+      <c r="E89" s="3">
         <v>59100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>45500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>26400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>45700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>34100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>22700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>15000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>32000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>11600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>12100</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>11</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-26400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-30000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>11</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-79300</v>
+      </c>
+      <c r="E94" s="3">
         <v>169700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>29300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-18200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-313500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-426400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-227400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3900</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>11</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-81700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-25500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-31300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-19600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-13300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-181100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>498100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>530500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>8000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>7700</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>11</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1700</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>11</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E102" s="3">
         <v>201000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>43400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-26300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-12200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-281500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-576300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>275300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>549400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>35300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>14500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>17600</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOCU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOCU_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>382900</v>
+      </c>
+      <c r="E8" s="3">
         <v>342200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>297000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>274900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>249500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>235600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>214000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>199700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>178400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>167000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>155800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>148900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>130600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>125500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>113500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>108400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>97800</v>
+      </c>
+      <c r="E9" s="3">
         <v>90600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>74000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>68100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>62000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>61200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>52000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>52700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>45100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>36400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>58300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>31500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>31200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>28500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>27100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>28900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>285100</v>
+      </c>
+      <c r="E10" s="3">
         <v>251600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>223000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>206800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>187500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>174400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>162000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>147000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>133300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>130600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>97500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>117400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>99400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>97000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>86400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>79500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>73400</v>
+      </c>
+      <c r="E12" s="3">
         <v>63800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>54200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>52100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>48800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>47500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>37200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>42900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>38400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>33800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>70900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>23400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>22500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>23800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>22700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>21300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1081,61 +1101,67 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E15" s="3">
         <v>4300</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2900</v>
       </c>
       <c r="F15" s="3">
         <v>2900</v>
       </c>
       <c r="G15" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="H15" s="3">
         <v>3000</v>
       </c>
       <c r="I15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J15" s="3">
         <v>3100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2300</v>
-      </c>
-      <c r="L15" s="3">
-        <v>800</v>
       </c>
       <c r="M15" s="3">
         <v>800</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="N15" s="3">
+        <v>800</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" s="3">
         <v>2500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>800</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>431400</v>
+      </c>
+      <c r="E17" s="3">
         <v>400800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>338900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>317200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>293500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>256400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>262400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>236800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>204800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>423400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>155100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>142900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>139300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>132800</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-48500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-58600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-41900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-42300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-44000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-64700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-42400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-62700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-58400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-37800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-267600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-12300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-19300</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,146 +1312,153 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>2600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-38100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-24100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-25400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-25500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-47900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-25200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-45800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-44700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-27600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-261200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-11700</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E22" s="3">
         <v>7700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3500</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
@@ -1433,119 +1473,128 @@
         <v>200</v>
       </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-56600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-63700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-45700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-46200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-45600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-67500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-44400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-64900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-58500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-34800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-270000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-13700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-19500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-22500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1300</v>
       </c>
       <c r="J24" s="3">
         <v>1300</v>
       </c>
       <c r="K24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L24" s="3">
         <v>-5700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-64600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-47800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-47400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-46600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-68600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-45700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-66200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-52800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-36700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-270700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-14500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-19400</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-64600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-47800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-47400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-46600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-68600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-45700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-66200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-52800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-36700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-271000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-14900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-19700</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-64600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-47800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-47400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-46600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-68600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-45700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-66200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-52800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-36700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-271000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-14900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-19700</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-64600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-47800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-47400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-46600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-68600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-45700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-66200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-52800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-36700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-271000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-14900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-19700</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,44 +2313,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>375000</v>
+      </c>
+      <c r="E41" s="3">
         <v>404300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>442200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>241200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>197700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>224300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>236500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>517800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1094100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>818800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>269400</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2280,35 +2367,38 @@
       <c r="S41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>223600</v>
+      </c>
+      <c r="E42" s="3">
         <v>269800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>315700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>414900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>456100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>526000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>515600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>251200</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>11</v>
       </c>
@@ -2324,8 +2414,8 @@
       <c r="P42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2333,44 +2423,47 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>283600</v>
+      </c>
+      <c r="E43" s="3">
         <v>241500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>233800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>250300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>177400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>154200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>130500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>185200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>142700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>122100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>116200</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,44 +2535,47 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E45" s="3">
         <v>52400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>51500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>37400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>38200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>39000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>39500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>30300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>28700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>27100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>30100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2492,44 +2591,47 @@
       <c r="S45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>929800</v>
+      </c>
+      <c r="E46" s="3">
         <v>968000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1043200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>943900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>869400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>943500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>922100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>984500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1265500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>968100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>415700</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>11</v>
       </c>
@@ -2545,35 +2647,38 @@
       <c r="S46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>77600</v>
+      </c>
+      <c r="E47" s="3">
         <v>67100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>141000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>240600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>259000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>181400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>186000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>164200</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2589,8 +2694,8 @@
       <c r="P47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2598,44 +2703,47 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>320000</v>
+      </c>
+      <c r="E48" s="3">
         <v>319000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>296300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>278100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>242500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>229400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>227500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>75800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>74000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>60400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>60100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>11</v>
       </c>
@@ -2651,44 +2759,47 @@
       <c r="S48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>476900</v>
+      </c>
+      <c r="E49" s="3">
         <v>485100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>245800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>251400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>255800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>260500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>264300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>269400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>273700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>45500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>47400</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>11</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,44 +2927,47 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>246800</v>
+      </c>
+      <c r="E52" s="3">
         <v>214200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>195100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>177100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>159700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>147000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>138600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>121400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>106300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>95700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>91300</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>11</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,44 +3039,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2051100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2053300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1921500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1891100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1786400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1761800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1738400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1615400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1719400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1169700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>614500</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>11</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,44 +3141,45 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E57" s="3">
         <v>33100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>21500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>28100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>29100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>23500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>21400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>19600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>22100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>11</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,44 +3251,47 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>890800</v>
+      </c>
+      <c r="E59" s="3">
         <v>821000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>708100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>665800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>559400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>550700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>501200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>496700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>412600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>372900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>349200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>11</v>
       </c>
@@ -3170,44 +3307,47 @@
       <c r="S59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>923100</v>
+      </c>
+      <c r="E60" s="3">
         <v>854000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>729600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>694000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>588500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>574100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>522600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>516300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>434600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>389600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>362500</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>11</v>
       </c>
@@ -3223,38 +3363,41 @@
       <c r="S60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>486100</v>
+      </c>
+      <c r="E61" s="3">
         <v>479100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>472200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>465300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>458600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>451900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>445400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>438900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>432600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3276,44 +3419,47 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>215800</v>
+      </c>
+      <c r="E62" s="3">
         <v>218300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>196900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>185500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>169900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>169100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>172700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>45800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>42100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>36600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>37900</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>11</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,44 +3643,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1625100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1551400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1398700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1344800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1217000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1195200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1140700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1001100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>909300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>426200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>400300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>11</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3701,11 +3869,11 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>547900</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,44 +3945,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1308000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1249500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1185000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1137200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1089800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1043200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-974500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-928800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-862500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-809700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-773000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>11</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,44 +4169,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>426000</v>
+      </c>
+      <c r="E76" s="3">
         <v>501900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>522800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>546300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>569400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>566700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>597700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>614400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>810200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>743500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-333700</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>11</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-64600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-47800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-47400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-46600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-68600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-45700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-66200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-52800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-36700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-271000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-14900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-19700</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E83" s="3">
         <v>17900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>14000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>12000</v>
       </c>
       <c r="J83" s="3">
         <v>12000</v>
       </c>
       <c r="K83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="L83" s="3">
         <v>10300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7700</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>57400</v>
+      </c>
+      <c r="E89" s="3">
         <v>118100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>59100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>45500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>26400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>45700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>34100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>22700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>15000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>32000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>11600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>12100</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-18400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-26400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-30000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-14600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-79300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>169700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>29300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-19100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-18200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-313500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-426400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-227400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-95200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-81700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-25500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-31300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-19600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-13300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-181100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>498100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>530500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>8000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>7700</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E101" s="3">
         <v>4900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1700</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-38000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>201000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>43400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-26300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-12200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-281500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-576300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>275300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>549400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>35300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>14500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>17600</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOCU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOCU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
   <si>
     <t>DOCU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>430900</v>
+      </c>
+      <c r="E8" s="3">
         <v>382900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>342200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>297000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>274900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>249500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>235600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>214000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>199700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>178400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>167000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>155800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>148900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>130600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>125500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>113500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>108400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>101600</v>
+      </c>
+      <c r="E9" s="3">
         <v>97800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>90600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>74000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>68100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>62000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>61200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>52000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>52700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>45100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>36400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>58300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>31500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>31200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>28500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>27100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>28900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>329300</v>
+      </c>
+      <c r="E10" s="3">
         <v>285100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>251600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>223000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>206800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>187500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>174400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>162000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>147000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>133300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>130600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>97500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>117400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>99400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>97000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>86400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>79500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>80100</v>
+      </c>
+      <c r="E12" s="3">
         <v>73400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>63800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>54200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>52100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>48800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>47500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>37200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>42900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>38400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>33800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>70900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>23400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>22500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>23800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>22700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>21300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,31 +1065,34 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>33800</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1104,64 +1124,70 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E15" s="3">
         <v>4000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4300</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2900</v>
       </c>
       <c r="G15" s="3">
         <v>2900</v>
       </c>
       <c r="H15" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="I15" s="3">
         <v>3000</v>
       </c>
       <c r="J15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K15" s="3">
         <v>3100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2300</v>
-      </c>
-      <c r="M15" s="3">
-        <v>800</v>
       </c>
       <c r="N15" s="3">
         <v>800</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="O15" s="3">
+        <v>800</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="3">
         <v>2500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>800</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>489500</v>
+      </c>
+      <c r="E17" s="3">
         <v>431400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>338900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>317200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>293500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>256400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>262400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>236800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>204800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>423400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>155100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>142900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>139300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>132800</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-48500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-58600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-41900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-42300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-44000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-64700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-42400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-62700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-58400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-37800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-267600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-13800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-19300</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1346,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-29300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-38100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-24100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-25400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-25500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-47900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-25200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-45800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-44700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-27600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-261200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-11700</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,34 +1474,34 @@
         <v>7800</v>
       </c>
       <c r="E22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F22" s="3">
         <v>7700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3500</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
@@ -1476,125 +1516,134 @@
         <v>200</v>
       </c>
       <c r="S22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-56600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-63700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-45700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-46200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-45600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-67500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-44400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-64900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-58500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-34800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-270000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-19500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-22500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1300</v>
       </c>
       <c r="K24" s="3">
         <v>1300</v>
       </c>
       <c r="L24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M24" s="3">
         <v>-5700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-72400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-58500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-64600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-47800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-47400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-46600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-68600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-45700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-66200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-52800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-36700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-270700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-14500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-12000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-19400</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-72400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-58500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-64600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-47800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-47400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-46600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-68600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-45700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-66200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-52800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-36700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-271000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-12400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-19700</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-72400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-58500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-64600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-47800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-47400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-46600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-68600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-45700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-66200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-52800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-36700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-271000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-12400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-19700</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-72400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-58500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-64600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-47800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-47400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-46600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-68600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-45700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-66200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-52800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-36700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-271000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-12400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-19700</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,47 +2400,48 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>566100</v>
+      </c>
+      <c r="E41" s="3">
         <v>375000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>404300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>442200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>241200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>197700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>224300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>236500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>517800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1094100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>818800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>269400</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2370,38 +2457,41 @@
       <c r="T41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>207500</v>
+      </c>
+      <c r="E42" s="3">
         <v>223600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>269800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>315700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>414900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>456100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>526000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>515600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>251200</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>11</v>
       </c>
@@ -2417,8 +2507,8 @@
       <c r="Q42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2426,47 +2516,50 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>340500</v>
+      </c>
+      <c r="E43" s="3">
         <v>283600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>241500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>233800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>250300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>177400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>154200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>130500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>185200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>142700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>122100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>116200</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,47 +2634,50 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E45" s="3">
         <v>47600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>52400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>51500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>37400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>38200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>39000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>39500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>30300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>28700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>27100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>30100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2594,47 +2693,50 @@
       <c r="T45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1162300</v>
+      </c>
+      <c r="E46" s="3">
         <v>929800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>968000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1043200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>943900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>869400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>943500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>922100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>984500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1265500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>968100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>415700</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>11</v>
       </c>
@@ -2650,38 +2752,41 @@
       <c r="T46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E47" s="3">
         <v>77600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>67100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>141000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>240600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>259000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>181400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>186000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>164200</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2697,8 +2802,8 @@
       <c r="Q47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2706,47 +2811,50 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>324400</v>
+      </c>
+      <c r="E48" s="3">
         <v>320000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>319000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>296300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>278100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>242500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>229400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>227500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>75800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>74000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>60400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>60100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>11</v>
       </c>
@@ -2762,47 +2870,50 @@
       <c r="T48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>472000</v>
+      </c>
+      <c r="E49" s="3">
         <v>476900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>485100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>245800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>251400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>255800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>260500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>264300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>269400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>273700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>45500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>47400</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>11</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,47 +3047,50 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>284500</v>
+      </c>
+      <c r="E52" s="3">
         <v>246800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>214200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>195100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>177100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>159700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>147000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>138600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>121400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>106300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>95700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>91300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>11</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,47 +3165,50 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2336500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2051100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2053300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1921500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1891100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1786400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1761800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1738400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1615400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1719400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1169700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>614500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>11</v>
       </c>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,47 +3272,48 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E57" s="3">
         <v>32300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>33100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>21500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>28100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>29100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>23500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>21400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>22100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>13300</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>11</v>
       </c>
@@ -3198,31 +3329,34 @@
       <c r="T57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>20500</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3254,47 +3388,50 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1035300</v>
+      </c>
+      <c r="E59" s="3">
         <v>890800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>821000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>708100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>665800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>559400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>550700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>501200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>496700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>412600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>372900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>349200</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>11</v>
       </c>
@@ -3310,47 +3447,50 @@
       <c r="T59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1093200</v>
+      </c>
+      <c r="E60" s="3">
         <v>923100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>854000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>729600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>694000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>588500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>574100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>522600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>516300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>434600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>389600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>362500</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>11</v>
       </c>
@@ -3366,41 +3506,44 @@
       <c r="T60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>696600</v>
+      </c>
+      <c r="E61" s="3">
         <v>486100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>479100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>472200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>465300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>458600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>451900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>445400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>438900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>432600</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3422,47 +3565,50 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>221000</v>
+      </c>
+      <c r="E62" s="3">
         <v>215800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>218300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>196900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>185500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>169900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>169100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>172700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>45800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>42100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>36600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>37900</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>11</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,47 +3801,50 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2010800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1625100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1551400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1398700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1344800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1217000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1195200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1140700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1001100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>909300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>426200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>400300</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>11</v>
       </c>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3872,11 +4040,11 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>547900</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,47 +4119,50 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1380500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1308000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1249500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1185000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1137200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1089800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1043200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-974500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-928800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-862500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-809700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-773000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>11</v>
       </c>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,47 +4355,50 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>325700</v>
+      </c>
+      <c r="E76" s="3">
         <v>426000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>501900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>522800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>546300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>569400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>566700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>597700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>614400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>810200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>743500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-333700</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>11</v>
       </c>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-72400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-58500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-64600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-47800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-47400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-46600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-68600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-45700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-66200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-52800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-36700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-271000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-12400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-19700</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E83" s="3">
         <v>19500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>17900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>14000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>12300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>12000</v>
       </c>
       <c r="K83" s="3">
         <v>12000</v>
       </c>
       <c r="L83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="M83" s="3">
         <v>10300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7700</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>11</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E89" s="3">
         <v>57400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>118100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>59100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>45500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>26400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>45700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>34100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>22700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>15000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>32000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>11600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>12100</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>11</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-26400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-30000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4300</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>11</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E94" s="3">
         <v>9700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-79300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>169700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>29300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-19100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-18200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-313500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-426400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-227400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3900</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>11</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5550,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>143500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-95200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-81700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-25500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-31300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-19600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-13300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-181100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>498100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>530500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>8000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>7700</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>11</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1700</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S101" s="3" t="s">
         <v>11</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>191100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-29300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-38000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>201000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>43400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-26300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-12200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-281500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-576300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>275300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>549400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>35300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>14500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>17600</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOCU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOCU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
   <si>
     <t>DOCU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,282 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>469100</v>
+      </c>
+      <c r="E8" s="3">
         <v>430900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>382900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>342200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>297000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>274900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>249500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>235600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>214000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>199700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>178400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>167000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>155800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>148900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>130600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>125500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>113500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>108400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>105200</v>
+      </c>
+      <c r="E9" s="3">
         <v>101600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>97800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>90600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>74000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>68100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>62000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>61200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>52000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>52700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>45100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>36400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>58300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>31500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>31200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>28500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>27100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>28900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>363900</v>
+      </c>
+      <c r="E10" s="3">
         <v>329300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>285100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>251600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>223000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>206800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>187500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>174400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>162000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>147000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>133300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>130600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>97500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>117400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>99400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>97000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>86400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>79500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>85400</v>
+      </c>
+      <c r="E12" s="3">
         <v>80100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>73400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>63800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>54200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>52100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>48800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>47500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>37200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>42900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>38400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>33800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>70900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>23400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>22500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>23800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>22700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>21300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,17 +1084,20 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3">
         <v>33800</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1094,8 +1113,8 @@
       <c r="J14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1127,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1136,58 +1158,61 @@
         <v>3400</v>
       </c>
       <c r="E15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F15" s="3">
         <v>4000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4300</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2900</v>
       </c>
       <c r="H15" s="3">
         <v>2900</v>
       </c>
       <c r="I15" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="J15" s="3">
         <v>3000</v>
       </c>
       <c r="K15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L15" s="3">
         <v>3100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2300</v>
-      </c>
-      <c r="N15" s="3">
-        <v>800</v>
       </c>
       <c r="O15" s="3">
         <v>800</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="P15" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R15" s="3">
         <v>2500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>800</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>479800</v>
+      </c>
+      <c r="E17" s="3">
         <v>489500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>431400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>338900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>317200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>293500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>256400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>262400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>236800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>204800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>423400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>155100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>142900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>139300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>132800</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-58600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-48500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-58600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-41900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-42300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-44000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-64700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-42400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-62700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-58400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-37800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-267600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-12300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-13800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-19300</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,164 +1379,171 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E20" s="3">
         <v>2900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-36100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-29300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-38100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-24100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-25400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-25500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-47900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-25200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-45800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-44700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-27600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-261200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-11700</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7800</v>
+        <v>1700</v>
       </c>
       <c r="E22" s="3">
         <v>7800</v>
       </c>
       <c r="F22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="G22" s="3">
         <v>7700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3500</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>200</v>
@@ -1519,131 +1558,140 @@
         <v>200</v>
       </c>
       <c r="T22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-63600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-56600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-63700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-45700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-46200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-45600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-67500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-44400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-64900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-58500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-34800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-270000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-13700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-19500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-22500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>8900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1300</v>
       </c>
       <c r="L24" s="3">
         <v>1300</v>
       </c>
       <c r="M24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N24" s="3">
         <v>-5700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-72400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-58500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-64600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-47800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-47400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-46600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-68600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-45700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-66200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-52800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-36700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-270700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-14500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-12000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-19400</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-72400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-58500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-64600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-47800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-47400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-46600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-68600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-45700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-66200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-52800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-36700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-271000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-14900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-12400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-19700</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-72400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-58500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-64600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-47800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-47400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-46600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-68600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-45700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-66200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-52800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-36700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-271000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-14900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-12400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-19700</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-72400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-58500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-64600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-47800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-47400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-46600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-68600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-45700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-66200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-52800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-36700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-271000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-14900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-12400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-19700</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,50 +2486,51 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>519000</v>
+      </c>
+      <c r="E41" s="3">
         <v>566100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>375000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>404300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>442200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>241200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>197700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>224300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>236500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>517800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1094100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>818800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>269400</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2460,41 +2546,44 @@
       <c r="U41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>261700</v>
+      </c>
+      <c r="E42" s="3">
         <v>207500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>223600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>269800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>315700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>414900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>456100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>526000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>515600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>251200</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>11</v>
       </c>
@@ -2510,8 +2599,8 @@
       <c r="R42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2519,50 +2608,53 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>265600</v>
+      </c>
+      <c r="E43" s="3">
         <v>340500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>283600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>241500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>233800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>250300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>177400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>154200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>130500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>185200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>142700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>122100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>116200</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2578,8 +2670,11 @@
       <c r="U43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,50 +2732,53 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>65200</v>
+      </c>
+      <c r="E45" s="3">
         <v>48400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>47600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>52400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>51500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>37400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>38200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>39000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>39500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>30300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>28700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>27100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>30100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2696,50 +2794,53 @@
       <c r="U45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1111400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1162300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>929800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>968000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1043200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>943900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>869400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>943500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>922100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>984500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1265500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>968100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>415700</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>11</v>
       </c>
@@ -2755,41 +2856,44 @@
       <c r="U46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>95500</v>
+      </c>
+      <c r="E47" s="3">
         <v>93300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>77600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>67100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>141000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>240600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>259000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>181400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>186000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>164200</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2805,8 +2909,8 @@
       <c r="R47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -2814,50 +2918,53 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>316300</v>
+      </c>
+      <c r="E48" s="3">
         <v>324400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>320000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>319000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>296300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>278100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>242500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>229400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>227500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>75800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>74000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>60400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>60100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>11</v>
       </c>
@@ -2873,50 +2980,53 @@
       <c r="U48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>466500</v>
+      </c>
+      <c r="E49" s="3">
         <v>472000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>476900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>485100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>245800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>251400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>255800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>260500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>264300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>269400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>273700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>45500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>47400</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>11</v>
       </c>
@@ -2932,8 +3042,11 @@
       <c r="U49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,50 +3166,53 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>307300</v>
+      </c>
+      <c r="E52" s="3">
         <v>284500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>246800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>214200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>195100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>177100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>159700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>147000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>138600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>121400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>106300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>95700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>91300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>11</v>
       </c>
@@ -3109,8 +3228,11 @@
       <c r="U52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,50 +3290,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2297100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2336500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2051100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2053300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1921500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1891100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1786400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1761800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1738400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1615400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1719400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1169700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>614500</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>11</v>
       </c>
@@ -3227,8 +3352,11 @@
       <c r="U54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,50 +3402,51 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E57" s="3">
         <v>37400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>21500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>28100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>29100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>23500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>21400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>22100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>13300</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>11</v>
       </c>
@@ -3332,17 +3462,20 @@
       <c r="U57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E58" s="3">
         <v>20500</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>11</v>
       </c>
@@ -3358,8 +3491,8 @@
       <c r="J58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3391,50 +3524,53 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1069700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1035300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>890800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>821000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>708100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>665800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>559400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>550700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>501200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>496700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>412600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>372900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>349200</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>11</v>
       </c>
@@ -3450,50 +3586,53 @@
       <c r="U59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1097900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1093200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>923100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>854000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>729600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>694000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>588500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>574100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>522600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>516300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>434600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>389600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>362500</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>11</v>
       </c>
@@ -3509,44 +3648,47 @@
       <c r="U60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>742600</v>
+      </c>
+      <c r="E61" s="3">
         <v>696600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>486100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>479100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>472200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>465300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>458600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>451900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>445400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>438900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>432600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3568,50 +3710,53 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>213400</v>
+      </c>
+      <c r="E62" s="3">
         <v>221000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>215800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>218300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>196900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>185500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>169900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>169100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>172700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>45800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>42100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>36600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>37900</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>11</v>
       </c>
@@ -3627,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,50 +3958,53 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2053900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2010800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1625100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1551400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1398700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1344800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1217000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1195200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1140700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1001100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>909300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>426200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>400300</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>11</v>
       </c>
@@ -3863,8 +4020,11 @@
       <c r="U66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4043,11 +4210,11 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>547900</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,50 +4292,53 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1376600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1380500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1308000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1249500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1185000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1137200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1089800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1043200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-974500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-928800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-862500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-809700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-773000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>11</v>
       </c>
@@ -4181,8 +4354,11 @@
       <c r="U72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,50 +4540,53 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>243200</v>
+      </c>
+      <c r="E76" s="3">
         <v>325700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>426000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>501900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>522800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>546300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>569400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>566700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>597700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>614400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>810200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>743500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-333700</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>11</v>
       </c>
@@ -4417,8 +4602,11 @@
       <c r="U76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-72400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-58500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-64600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-47800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-47400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-46600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-68600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-45700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-66200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-52800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-36700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-271000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-14900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-12400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-19700</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E83" s="3">
         <v>19600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>19500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>17900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>14000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>12700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>12300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>12000</v>
       </c>
       <c r="L83" s="3">
         <v>12000</v>
       </c>
       <c r="M83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="N83" s="3">
         <v>10300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7700</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>11</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>135600</v>
+      </c>
+      <c r="E89" s="3">
         <v>62200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>57400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>118100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>59100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>45500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>26400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>45700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>34100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>22700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>15000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>32000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>11600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>12100</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>11</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-18300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-26400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-30000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4300</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>11</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-18800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>9700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-79300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>169700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>29300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-19100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-18200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-313500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-426400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-227400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3900</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>11</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-113000</v>
+      </c>
+      <c r="E100" s="3">
         <v>143500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-95200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-81700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-25500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-31300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-19600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-13300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-181100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>498100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>530500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>8000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>7700</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>11</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>4200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1700</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T101" s="3" t="s">
         <v>11</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="E102" s="3">
         <v>191100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-29300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-38000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>201000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>43400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-26300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-12200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-281500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-576300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>275300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>549400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>35300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>14500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>17600</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOCU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOCU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
   <si>
     <t>DOCU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>511800</v>
+      </c>
+      <c r="E8" s="3">
         <v>469100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>430900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>382900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>342200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>297000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>274900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>249500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>235600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>214000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>199700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>178400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>167000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>155800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>148900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>130600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>125500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>113500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>108400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>113800</v>
+      </c>
+      <c r="E9" s="3">
         <v>105200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>101600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>97800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>90600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>74000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>68100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>62000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>61200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>52000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>52700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>45100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>36400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>58300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>31500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>31200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>28500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>27100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>28900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>398000</v>
+      </c>
+      <c r="E10" s="3">
         <v>363900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>329300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>285100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>251600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>223000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>206800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>187500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>174400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>162000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>147000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>133300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>130600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>97500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>117400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>99400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>97000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>86400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>79500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>94700</v>
+      </c>
+      <c r="E12" s="3">
         <v>85400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>80100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>73400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>63800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>54200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>52100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>48800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>47500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>37200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>42900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>38400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>33800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>70900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>23400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>22500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>23800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>22700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>21300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,20 +1104,23 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3">
         <v>33800</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1116,8 +1136,8 @@
       <c r="K14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1149,70 +1169,76 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E15" s="3">
         <v>3400</v>
       </c>
       <c r="F15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G15" s="3">
         <v>4000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4300</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2900</v>
       </c>
       <c r="I15" s="3">
         <v>2900</v>
       </c>
       <c r="J15" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="K15" s="3">
         <v>3000</v>
       </c>
       <c r="L15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M15" s="3">
         <v>3100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2300</v>
-      </c>
-      <c r="O15" s="3">
-        <v>800</v>
       </c>
       <c r="P15" s="3">
         <v>800</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="Q15" s="3">
+        <v>800</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S15" s="3">
         <v>2500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>800</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>534500</v>
+      </c>
+      <c r="E17" s="3">
         <v>479800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>489500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>431400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>338900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>317200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>293500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>256400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>262400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>236800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>204800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>423400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>155100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>142900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>139300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>132800</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-10700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-58600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-48500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-58600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-41900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-42300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-44000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-64700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-42400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-62700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-58400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-37800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-267600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-6200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-12300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-13800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-19300</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1413,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>6000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V20" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E21" s="3">
         <v>15300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-36100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-29300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-38100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-24100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-25400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-25500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-47900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-25200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-45800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-44700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-27600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-261200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-11700</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1513,40 +1553,40 @@
         <v>1700</v>
       </c>
       <c r="E22" s="3">
-        <v>7800</v>
+        <v>1700</v>
       </c>
       <c r="F22" s="3">
         <v>7800</v>
       </c>
       <c r="G22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="H22" s="3">
         <v>7700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3500</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>200</v>
@@ -1561,137 +1601,146 @@
         <v>200</v>
       </c>
       <c r="U22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-63600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-56600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-63700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-45700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-46200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-45600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-67500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-44400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-64900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-58500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-34800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-270000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-13700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-11900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-19500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-22500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1300</v>
       </c>
       <c r="M24" s="3">
         <v>1300</v>
       </c>
       <c r="N24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O24" s="3">
         <v>-5700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-72400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-58500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-64600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-47800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-47400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-46600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-68600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-45700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-66200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-52800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-36700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-270700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-14500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-12000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-19400</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-72400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-58500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-64600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-47800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-47400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-46600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-68600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-45700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-66200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-52800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-36700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-271000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-14900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-12400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-19700</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V32" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-72400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-58500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-64600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-47800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-47400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-46600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-68600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-45700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-66200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-52800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-36700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-271000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-14900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-12400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-19700</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-72400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-58500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-64600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-47800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-47400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-46600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-68600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-45700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-66200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-52800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-36700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-271000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-14900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-12400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-19700</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,53 +2573,54 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>518600</v>
+      </c>
+      <c r="E41" s="3">
         <v>519000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>566100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>375000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>404300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>442200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>241200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>197700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>224300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>236500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>517800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1094100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>818800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>269400</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2549,44 +2636,47 @@
       <c r="V41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>304300</v>
+      </c>
+      <c r="E42" s="3">
         <v>261700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>207500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>223600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>269800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>315700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>414900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>456100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>526000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>515600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>251200</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>11</v>
       </c>
@@ -2602,8 +2692,8 @@
       <c r="S42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2611,53 +2701,56 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>298700</v>
+      </c>
+      <c r="E43" s="3">
         <v>265600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>340500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>283600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>241500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>233800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>250300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>177400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>154200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>130500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>185200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>142700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>122100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>116200</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,53 +2831,56 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E45" s="3">
         <v>65200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>48400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>47600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>52400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>51500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>37400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>38200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>39000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>39500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>30300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>28700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>27100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>30100</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2797,53 +2896,56 @@
       <c r="V45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1182800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1111400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1162300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>929800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>968000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1043200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>943900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>869400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>943500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>922100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>984500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1265500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>968100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>415700</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>11</v>
       </c>
@@ -2859,44 +2961,47 @@
       <c r="V46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E47" s="3">
         <v>95500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>93300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>77600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>67100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>141000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>240600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>259000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>181400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>186000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>164200</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2912,8 +3017,8 @@
       <c r="S47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -2921,53 +3026,56 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>314600</v>
+      </c>
+      <c r="E48" s="3">
         <v>316300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>324400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>320000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>319000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>296300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>278100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>242500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>229400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>227500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>75800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>74000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>60400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>60100</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>11</v>
       </c>
@@ -2983,53 +3091,56 @@
       <c r="V48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>465900</v>
+      </c>
+      <c r="E49" s="3">
         <v>466500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>472000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>476900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>485100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>245800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>251400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>255800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>260500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>264300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>269400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>273700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>45500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>47400</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>11</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,53 +3286,56 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>327700</v>
+      </c>
+      <c r="E52" s="3">
         <v>307300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>284500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>246800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>214200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>195100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>177100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>159700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>147000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>138600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>121400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>106300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>95700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>91300</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>11</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,53 +3416,56 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2355700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2297100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2336500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2051100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2053300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1921500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1891100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1786400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1761800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1738400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1615400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1719400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1169700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>614500</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>11</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,53 +3533,54 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E57" s="3">
         <v>14900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>37400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>32300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>33100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>21500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>28100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>29100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>23500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>21400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>22100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>16700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>13300</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>11</v>
       </c>
@@ -3465,20 +3596,23 @@
       <c r="V57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
         <v>13300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>20500</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>11</v>
       </c>
@@ -3494,8 +3628,8 @@
       <c r="K58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3527,53 +3661,56 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1174000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1069700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1035300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>890800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>821000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>708100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>665800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>559400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>550700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>501200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>496700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>412600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>372900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>349200</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>11</v>
       </c>
@@ -3589,53 +3726,56 @@
       <c r="V59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1209600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1097900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1093200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>923100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>854000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>729600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>694000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>588500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>574100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>522600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>516300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>434600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>389600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>362500</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>11</v>
       </c>
@@ -3651,47 +3791,50 @@
       <c r="V60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>730300</v>
+      </c>
+      <c r="E61" s="3">
         <v>742600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>696600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>486100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>479100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>472200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>465300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>458600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>451900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>445400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>438900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>432600</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3713,53 +3856,56 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>203900</v>
+      </c>
+      <c r="E62" s="3">
         <v>213400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>221000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>215800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>218300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>196900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>185500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>169900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>169100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>172700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>45800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>42100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>36600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>37900</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>11</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,53 +4116,56 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2143800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2053900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2010800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1625100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1551400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1398700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1344800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1217000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1195200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1140700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1001100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>909300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>426200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>400300</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>11</v>
       </c>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4213,11 +4381,11 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>547900</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,53 +4466,56 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1402100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1376600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1380500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1308000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1249500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1185000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1137200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1089800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1043200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-974500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-928800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-862500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-809700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-773000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>11</v>
       </c>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,53 +4726,56 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>211900</v>
+      </c>
+      <c r="E76" s="3">
         <v>243200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>325700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>426000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>501900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>522800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>546300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>569400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>566700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>597700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>614400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>810200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>743500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-333700</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>11</v>
       </c>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-72400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-58500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-64600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-47800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-47400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-46600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-68600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-45700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-66200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-52800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-36700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-271000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-14900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-12400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-19700</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E83" s="3">
         <v>20000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>19600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>19500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>17900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>14000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>13300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>12700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>12000</v>
       </c>
       <c r="M83" s="3">
         <v>12000</v>
       </c>
       <c r="N83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="O83" s="3">
         <v>10300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7700</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>11</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>177700</v>
+      </c>
+      <c r="E89" s="3">
         <v>135600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>62200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>57400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>118100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>59100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>45500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>26400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>45700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>34100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>22700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>15000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>32000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>11600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>12100</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>11</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-26400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-30000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4300</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>11</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-70500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>9700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-79300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>169700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>29300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-19100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-18200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-313500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-426400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-227400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3900</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>11</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-142400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-113000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>143500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-95200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-81700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-25500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-31300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-19600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-13300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-181100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>498100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>530500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>8000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>7700</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>11</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1700</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U101" s="3" t="s">
         <v>11</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-47100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>191100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-29300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-38000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>201000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>43400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-26300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-12200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-281500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-576300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>275300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>549400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>12400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>35300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>14500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>17600</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOCU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOCU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
   <si>
     <t>DOCU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42766</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>545500</v>
+      </c>
+      <c r="E8" s="3">
         <v>511800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>469100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>430900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>382900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>342200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>297000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>274900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>249500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>235600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>214000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>199700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>178400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>167000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>155800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>148900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>130600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>125500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>113500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>108400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E9" s="3">
         <v>113800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>105200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>101600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>97800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>90600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>74000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>68100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>62000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>61200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>52000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>52700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>45100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>36400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>58300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>31500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>31200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>28500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>27100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>28900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>429500</v>
+      </c>
+      <c r="E10" s="3">
         <v>398000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>363900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>329300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>285100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>251600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>223000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>206800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>187500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>174400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>162000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>147000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>133300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>130600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>97500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>117400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>99400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>97000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>86400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>79500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>102600</v>
+      </c>
+      <c r="E12" s="3">
         <v>94700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>85400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>80100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>73400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>63800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>54200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>52100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>48800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>47500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>37200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>42900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>38400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>33800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>70900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>23400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>22500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>23800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>22700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>21300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1118,12 +1138,12 @@
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3">
         <v>33800</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1139,8 +1159,8 @@
       <c r="L14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1172,73 +1192,79 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3">
         <v>3300</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3400</v>
       </c>
       <c r="F15" s="3">
         <v>3400</v>
       </c>
       <c r="G15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H15" s="3">
         <v>4000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2900</v>
       </c>
       <c r="J15" s="3">
         <v>2900</v>
       </c>
       <c r="K15" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="L15" s="3">
         <v>3000</v>
       </c>
       <c r="M15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N15" s="3">
         <v>3100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2300</v>
-      </c>
-      <c r="P15" s="3">
-        <v>800</v>
       </c>
       <c r="Q15" s="3">
         <v>800</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="R15" s="3">
+        <v>800</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T15" s="3">
         <v>2500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>800</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>548800</v>
+      </c>
+      <c r="E17" s="3">
         <v>534500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>479800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>489500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>431400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>338900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>317200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>293500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>256400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>262400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>236800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>204800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>423400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>155100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>142900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>139300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>132800</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-22700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-10700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-58600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-48500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-58600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-41900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-42300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-44000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-64700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-42400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-62700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-58400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-37800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-267600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-6200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-12300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-13800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-19300</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,173 +1457,179 @@
         <v>-1000</v>
       </c>
       <c r="E20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>6000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W20" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>15300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-36100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-29300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-38100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-24100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-25400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-25500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-47900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-25200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-45800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-44700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-27600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-261200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-5300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-11700</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="E22" s="3">
         <v>1700</v>
       </c>
       <c r="F22" s="3">
-        <v>7800</v>
+        <v>1700</v>
       </c>
       <c r="G22" s="3">
         <v>7800</v>
       </c>
       <c r="H22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="I22" s="3">
         <v>7700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3500</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>200</v>
@@ -1604,143 +1644,152 @@
         <v>200</v>
       </c>
       <c r="V22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-25300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-63600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-56600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-63700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-45700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-46200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-45600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-67500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-44400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-64900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-58500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-34800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-270000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-13700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-11900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-19500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-22500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1300</v>
       </c>
       <c r="N24" s="3">
         <v>1300</v>
       </c>
       <c r="O24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P24" s="3">
         <v>-5700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-25500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-72400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-58500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-64600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-47800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-47400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-46600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-68600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-45700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-66200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-52800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-36700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-270700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-14500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-12000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-19400</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-25500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-72400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-58500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-64600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-47800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-47400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-46600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-68600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-45700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-66200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-52800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-36700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-271000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-14900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-12400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-19700</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,129 +2273,135 @@
         <v>1000</v>
       </c>
       <c r="E32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-6000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W32" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-25500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-72400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-58500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-64600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-47800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-47400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-46600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-68600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-45700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-66200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-52800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-36700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-271000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-14900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-12400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-19700</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-25500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-72400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-58500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-64600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-47800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-47400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-46600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-68600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-45700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-66200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-52800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-36700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-271000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-14900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-12400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-19700</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42766</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,56 +2660,57 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>503900</v>
+      </c>
+      <c r="E41" s="3">
         <v>518600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>519000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>566100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>375000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>404300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>442200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>241200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>197700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>224300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>236500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>517800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1094100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>818800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>269400</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2639,47 +2726,50 @@
       <c r="W41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>314600</v>
+      </c>
+      <c r="E42" s="3">
         <v>304300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>261700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>207500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>223600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>269800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>315700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>414900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>456100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>526000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>515600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>251200</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>11</v>
       </c>
@@ -2695,8 +2785,8 @@
       <c r="T42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -2704,56 +2794,59 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>320300</v>
+      </c>
+      <c r="E43" s="3">
         <v>298700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>265600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>340500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>283600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>241500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>233800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>250300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>177400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>154200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>130500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>185200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>142700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>122100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>116200</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,56 +2930,59 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>67800</v>
+      </c>
+      <c r="E45" s="3">
         <v>61200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>65200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>48400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>47600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>52400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>51500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>37400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>38200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>39000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>39500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>30300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>28700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>27100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>30100</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2899,56 +2998,59 @@
       <c r="W45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1206600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1182800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1111400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1162300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>929800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>968000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1043200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>943900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>869400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>943500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>922100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>984500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1265500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>968100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>415700</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>11</v>
       </c>
@@ -2964,47 +3066,50 @@
       <c r="W46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>89800</v>
+      </c>
+      <c r="E47" s="3">
         <v>64700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>95500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>93300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>77600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>67100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>141000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>240600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>259000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>181400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>186000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>164200</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>11</v>
       </c>
@@ -3020,8 +3125,8 @@
       <c r="T47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3029,56 +3134,59 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>310400</v>
+      </c>
+      <c r="E48" s="3">
         <v>314600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>316300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>324400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>320000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>319000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>296300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>278100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>242500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>229400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>227500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>75800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>74000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>60400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>60100</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>11</v>
       </c>
@@ -3094,56 +3202,59 @@
       <c r="W48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>458200</v>
+      </c>
+      <c r="E49" s="3">
         <v>465900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>466500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>472000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>476900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>485100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>245800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>251400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>255800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>260500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>264300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>269400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>273700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>45500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>47400</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>11</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,56 +3406,59 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>345600</v>
+      </c>
+      <c r="E52" s="3">
         <v>327700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>307300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>284500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>246800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>214200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>195100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>177100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>159700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>147000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>138600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>121400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>106300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>95700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>91300</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>11</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,56 +3542,59 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2410500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2355700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2297100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2336500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2051100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2053300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1921500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1891100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1786400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1761800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1738400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1615400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1719400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1169700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>614500</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>11</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,56 +3664,57 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E57" s="3">
         <v>33600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>37400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>32300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>33100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>21500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>28100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>29100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>23500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>21400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>22100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>13300</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>11</v>
       </c>
@@ -3599,23 +3730,26 @@
       <c r="W57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>13300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>20500</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>11</v>
       </c>
@@ -3631,8 +3765,8 @@
       <c r="L58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3664,56 +3798,59 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1201100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1174000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1069700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1035300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>890800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>821000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>708100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>665800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>559400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>550700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>501200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>496700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>412600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>372900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>349200</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>11</v>
       </c>
@@ -3729,56 +3866,59 @@
       <c r="W59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1260400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1209600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1097900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1093200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>923100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>854000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>729600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>694000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>588500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>574100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>522600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>516300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>434600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>389600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>362500</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>11</v>
       </c>
@@ -3794,50 +3934,53 @@
       <c r="W60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>718800</v>
+      </c>
+      <c r="E61" s="3">
         <v>730300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>742600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>696600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>486100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>479100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>472200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>465300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>458600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>451900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>445400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>438900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>432600</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3859,56 +4002,59 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>191700</v>
+      </c>
+      <c r="E62" s="3">
         <v>203900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>213400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>221000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>215800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>218300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>196900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>185500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>169900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>169100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>172700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>45800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>42100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>36600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>37900</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>11</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,56 +4274,59 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2170900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2143800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2053900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2010800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1625100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1551400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1398700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1344800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1217000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1195200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1140700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1001100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>909300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>426200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>400300</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>11</v>
       </c>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4384,11 +4552,11 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>547900</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,56 +4640,59 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1407700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1402100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1376600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1380500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1308000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1249500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1185000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1137200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1089800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1043200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-974500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-928800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-862500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-809700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-773000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>11</v>
       </c>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,56 +4912,59 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>239600</v>
+      </c>
+      <c r="E76" s="3">
         <v>211900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>243200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>325700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>426000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>501900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>522800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>546300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>569400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>566700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>597700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>614400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>810200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>743500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-333700</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>11</v>
       </c>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42766</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-25500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-72400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-58500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-64600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-47800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-47400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-46600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-68600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-45700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-66200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-52800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-36700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-271000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-14900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-12400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-19700</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E83" s="3">
         <v>21000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>20000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>19600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>19500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>17900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>14000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>13300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12300</v>
-      </c>
-      <c r="M83" s="3">
-        <v>12000</v>
       </c>
       <c r="N83" s="3">
         <v>12000</v>
       </c>
       <c r="O83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="P83" s="3">
         <v>10300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>7700</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>11</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>105400</v>
+      </c>
+      <c r="E89" s="3">
         <v>177700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>135600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>62200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>57400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>118100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>59100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>45500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>26400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>45700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>34100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>22700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>15000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>32000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>11600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>12100</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>11</v>
       </c>
       <c r="W89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-18400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-26400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-30000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4300</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>11</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-34400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-70500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-18800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>9700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-79300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>169700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>29300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-18200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-313500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-426400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-227400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3900</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>11</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-142400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-113000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>143500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-95200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-81700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-25500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-31300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-19600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-13300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-181100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>498100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>530500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>8000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>7700</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>11</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1700</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V101" s="3" t="s">
         <v>11</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-47100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>191100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-29300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-38000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>201000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>43400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-26300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-12200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-281500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-576300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>275300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>549400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>12400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>35300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>14500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>17600</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOCU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOCU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
   <si>
     <t>DOCU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42766</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>580800</v>
+      </c>
+      <c r="E8" s="3">
         <v>545500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>511800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>469100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>430900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>382900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>342200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>297000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>274900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>249500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>235600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>214000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>199700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>178400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>167000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>155800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>148900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>130600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>125500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>113500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>108400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>131500</v>
+      </c>
+      <c r="E9" s="3">
         <v>116000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>113800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>105200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>101600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>97800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>90600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>74000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>68100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>62000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>61200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>52000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>52700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>45100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>36400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>58300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>31500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>31200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>28500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>27100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>28900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>449300</v>
+      </c>
+      <c r="E10" s="3">
         <v>429500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>398000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>363900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>329300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>285100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>251600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>223000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>206800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>187500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>174400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>162000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>147000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>133300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>130600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>97500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>117400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>99400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>97000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>86400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>79500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1004,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>110700</v>
+      </c>
+      <c r="E12" s="3">
         <v>102600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>94700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>85400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>80100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>73400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>63800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>54200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>52100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>48800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>47500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>37200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>42900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>38400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>33800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>70900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>23400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>22500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>23800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>22700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>21300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,26 +1144,29 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="D14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="3">
         <v>33800</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1162,8 +1182,8 @@
       <c r="M14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1195,76 +1215,82 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3">
         <v>3300</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3400</v>
       </c>
       <c r="G15" s="3">
         <v>3400</v>
       </c>
       <c r="H15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I15" s="3">
         <v>4000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4300</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2900</v>
       </c>
       <c r="K15" s="3">
         <v>2900</v>
       </c>
       <c r="L15" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="M15" s="3">
         <v>3000</v>
       </c>
       <c r="N15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O15" s="3">
         <v>3100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2300</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>800</v>
       </c>
       <c r="R15" s="3">
         <v>800</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="S15" s="3">
+        <v>800</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U15" s="3">
         <v>2500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>800</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>606000</v>
+      </c>
+      <c r="E17" s="3">
         <v>548800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>534500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>479800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>489500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>431400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>338900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>317200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>293500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>256400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>262400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>236800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>204800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>423400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>155100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>142900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>139300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>132800</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X17" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-22700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-10700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-58600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-48500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-58600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-41900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-42300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-44000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-64700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-42400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-62700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-58400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-37800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-267600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-6200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-12300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-13800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-19300</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X18" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,191 +1481,198 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1000</v>
+        <v>-2600</v>
       </c>
       <c r="E20" s="3">
         <v>-1000</v>
       </c>
       <c r="F20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G20" s="3">
         <v>6000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X20" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E21" s="3">
         <v>15900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>15300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-36100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-29300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-38100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-24100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-25400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-25500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-47900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-25200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-45800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-44700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-27600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-261200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-5300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-4000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-11700</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E22" s="3">
         <v>1500</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1700</v>
       </c>
       <c r="F22" s="3">
         <v>1700</v>
       </c>
       <c r="G22" s="3">
-        <v>7800</v>
+        <v>1700</v>
       </c>
       <c r="H22" s="3">
         <v>7800</v>
       </c>
       <c r="I22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J22" s="3">
         <v>7700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3500</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
         <v>200</v>
@@ -1647,149 +1687,158 @@
         <v>200</v>
       </c>
       <c r="W22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-25300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-63600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-56600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-63700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-45700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-46200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-45600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-67500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-44400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-64900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-58500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-34800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-270000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-13700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-11900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-19500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-22500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>1300</v>
       </c>
       <c r="O24" s="3">
         <v>1300</v>
       </c>
       <c r="P24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-25500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-72400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-58500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-64600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-47800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-47400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-46600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-68600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-45700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-66200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-52800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-36700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-270700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-14500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-12000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-19400</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X26" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-25500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-72400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-58500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-64600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-47800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-47400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-46600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-68600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-45700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-66200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-52800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-36700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-271000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-14900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-12400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-19700</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X27" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1000</v>
+        <v>2600</v>
       </c>
       <c r="E32" s="3">
         <v>1000</v>
       </c>
       <c r="F32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-6000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X32" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-25500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-72400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-58500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-64600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-47800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-47400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-46600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-68600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-45700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-66200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-52800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-36700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-271000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-14900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-12400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-19700</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X33" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-25500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-72400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-58500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-64600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-47800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-47400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-46600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-68600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-45700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-66200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-52800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-36700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-271000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-14900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-12400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-19700</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X35" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42766</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,59 +2747,60 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>509100</v>
+      </c>
+      <c r="E41" s="3">
         <v>503900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>518600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>519000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>566100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>375000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>404300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>442200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>241200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>197700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>224300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>236500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>517800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1094100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>818800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>269400</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2729,50 +2816,53 @@
       <c r="X41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>293800</v>
+      </c>
+      <c r="E42" s="3">
         <v>314600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>304300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>261700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>207500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>223600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>269800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>315700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>414900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>456100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>526000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>515600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>251200</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>11</v>
       </c>
@@ -2788,8 +2878,8 @@
       <c r="U42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
@@ -2797,59 +2887,62 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>453500</v>
+      </c>
+      <c r="E43" s="3">
         <v>320300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>298700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>265600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>340500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>283600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>241500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>233800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>250300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>177400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>154200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>130500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>185200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>142700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>122100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>116200</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,59 +3029,62 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>63200</v>
+      </c>
+      <c r="E45" s="3">
         <v>67800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>61200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>65200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>48400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>47600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>52400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>51500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>37400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>38200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>39000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>39500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>30300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>28700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>27100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>30100</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>11</v>
       </c>
@@ -3001,59 +3100,62 @@
       <c r="X45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1319600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1206600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1182800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1111400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1162300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>929800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>968000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1043200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>943900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>869400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>943500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>922100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>984500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1265500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>968100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>415700</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>11</v>
       </c>
@@ -3069,50 +3171,53 @@
       <c r="X46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>94900</v>
+      </c>
+      <c r="E47" s="3">
         <v>89800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>64700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>95500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>93300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>77600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>67100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>141000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>240600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>259000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>181400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>186000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>164200</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>11</v>
       </c>
@@ -3128,8 +3233,8 @@
       <c r="U47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3137,59 +3242,62 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>310700</v>
+      </c>
+      <c r="E48" s="3">
         <v>310400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>314600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>316300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>324400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>320000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>319000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>296300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>278100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>242500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>229400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>227500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>75800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>74000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>60400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>60100</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>11</v>
       </c>
@@ -3205,59 +3313,62 @@
       <c r="X48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>453900</v>
+      </c>
+      <c r="E49" s="3">
         <v>458200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>465900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>466500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>472000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>476900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>485100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>245800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>251400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>255800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>260500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>264300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>269400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>273700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>45500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>47400</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>11</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,59 +3526,62 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>362200</v>
+      </c>
+      <c r="E52" s="3">
         <v>345600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>327700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>307300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>284500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>246800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>214200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>195100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>177100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>159700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>147000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>138600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>121400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>106300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>95700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>91300</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>11</v>
       </c>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,59 +3668,62 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2541300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2410500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2355700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2297100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2336500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2051100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2053300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1921500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1891100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1786400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1761800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1738400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1615400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1719400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1169700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>614500</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>11</v>
       </c>
@@ -3613,8 +3739,11 @@
       <c r="X54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,59 +3795,60 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E57" s="3">
         <v>47700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>33600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>37400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>32300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>33100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>21500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>28100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>29100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>23500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>21400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>22100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>16700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>13300</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>11</v>
       </c>
@@ -3733,26 +3864,29 @@
       <c r="X57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>11500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>13300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>20500</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>11</v>
       </c>
@@ -3768,8 +3902,8 @@
       <c r="M58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3801,59 +3935,62 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1318800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1201100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1174000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1069700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1035300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>890800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>821000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>708100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>665800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>559400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>550700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>501200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>496700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>412600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>372900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>349200</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>11</v>
       </c>
@@ -3869,59 +4006,62 @@
       <c r="X59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1371600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1260400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1209600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1097900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1093200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>923100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>854000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>729600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>694000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>588500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>574100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>522600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>516300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>434600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>389600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>362500</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>11</v>
       </c>
@@ -3937,53 +4077,56 @@
       <c r="X60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>718500</v>
+      </c>
+      <c r="E61" s="3">
         <v>718800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>730300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>742600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>696600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>486100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>479100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>472200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>465300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>458600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>451900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>445400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>438900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>432600</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4005,59 +4148,62 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>175600</v>
+      </c>
+      <c r="E62" s="3">
         <v>191700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>203900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>213400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>221000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>215800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>218300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>196900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>185500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>169900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>169100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>172700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>45800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>42100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>36600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>37900</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>11</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,59 +4432,62 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2265800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2170900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2143800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2053900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2010800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1625100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1551400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1398700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1344800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1217000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1195200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1140700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1001100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>909300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>426200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>400300</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>11</v>
       </c>
@@ -4345,8 +4503,11 @@
       <c r="X66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4555,11 +4723,11 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>547900</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,59 +4814,62 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1438200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1407700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1402100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1376600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1380500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1308000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1249500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1185000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1137200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1089800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1043200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-974500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-928800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-862500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-809700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-773000</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>11</v>
       </c>
@@ -4711,8 +4885,11 @@
       <c r="X72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,59 +5098,62 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>275500</v>
+      </c>
+      <c r="E76" s="3">
         <v>239600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>211900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>243200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>325700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>426000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>501900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>522800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>546300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>569400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>566700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>597700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>614400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>810200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>743500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-333700</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>11</v>
       </c>
@@ -4983,8 +5169,11 @@
       <c r="X76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42766</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-25500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-72400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-58500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-64600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-47800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-47400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-46600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-68600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-45700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-66200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-52800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-36700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-271000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-14900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-12400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-19700</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X81" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5416,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E83" s="3">
         <v>20200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>20000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>19600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>19500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>17900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>14000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12300</v>
-      </c>
-      <c r="N83" s="3">
-        <v>12000</v>
       </c>
       <c r="O83" s="3">
         <v>12000</v>
       </c>
       <c r="P83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>10300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>7700</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>11</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>87800</v>
+      </c>
+      <c r="E89" s="3">
         <v>105400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>177700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>135600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>62200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>57400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>118100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>59100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>45500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>26400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>45700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>34100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>22700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>15000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>32000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>11600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>12100</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>11</v>
       </c>
       <c r="X89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-26400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-30000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4300</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>11</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-52800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-34400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-70500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-18800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>9700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-79300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>169700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>29300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-19100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-18200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-313500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-426400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-227400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3900</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>11</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6533,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-73900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-65400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-142400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-113000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>143500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-95200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-81700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-25500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-31300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-19600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-13300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-181100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>498100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>530500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>5600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>8000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>7700</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>11</v>
       </c>
       <c r="X100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1700</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W101" s="3" t="s">
         <v>11</v>
       </c>
       <c r="X101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-14700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-47100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>191100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-29300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-38000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>201000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>43400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-26300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-12200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-281500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-576300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>275300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>549400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>12400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>35300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>14500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>17600</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOCU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOCU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
   <si>
     <t>DOCU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,333 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43131</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43039</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42947</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42855</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42766</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>588700</v>
+      </c>
+      <c r="E8" s="3">
         <v>580800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>545500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>511800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>469100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>430900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>382900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>342200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>297000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>274900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>249500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>235600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>214000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>199700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>178400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>167000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>155800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>148900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>130600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>125500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>113500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>108400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>132400</v>
+      </c>
+      <c r="E9" s="3">
         <v>131500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>116000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>113800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>105200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>101600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>97800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>90600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>74000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>68100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>62000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>61200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>52000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>52700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>45100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>36400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>58300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>31500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>31200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>28500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>27100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>28900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>456300</v>
+      </c>
+      <c r="E10" s="3">
         <v>449300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>429500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>398000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>363900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>329300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>285100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>251600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>223000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>206800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>187500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>174400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>162000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>147000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>133300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>130600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>97500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>117400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>99400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>97000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>86400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>79500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>112200</v>
+      </c>
+      <c r="E12" s="3">
         <v>110700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>102600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>94700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>85400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>80100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>73400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>63800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>54200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>52100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>48800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>47500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>37200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>42900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>38400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>33800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>70900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>23400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>22500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>23800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>22700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>21300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,29 +1163,32 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3">
         <v>1200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>3900</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="3">
         <v>33800</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1204,8 @@
       <c r="N14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1218,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1229,68 +1251,71 @@
       <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3">
         <v>3300</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3400</v>
       </c>
       <c r="H15" s="3">
         <v>3400</v>
       </c>
       <c r="I15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J15" s="3">
         <v>4000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4300</v>
-      </c>
-      <c r="K15" s="3">
-        <v>2900</v>
       </c>
       <c r="L15" s="3">
         <v>2900</v>
       </c>
       <c r="M15" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="N15" s="3">
         <v>3000</v>
       </c>
       <c r="O15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P15" s="3">
         <v>3100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2300</v>
-      </c>
-      <c r="R15" s="3">
-        <v>800</v>
       </c>
       <c r="S15" s="3">
         <v>800</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="T15" s="3">
+        <v>800</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V15" s="3">
         <v>2500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>800</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>607900</v>
+      </c>
+      <c r="E17" s="3">
         <v>606000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>548800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>534500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>479800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>489500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>431400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>338900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>317200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>293500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>256400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>262400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>236800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>204800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>423400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>155100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>142900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>139300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>132800</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y17" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-25200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-22700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-10700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-58600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-48500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-58600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-41900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-42300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-44000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-64700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-42400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-62700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-58400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-37800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-267600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-6200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-12300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-13800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-19300</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,150 +1514,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-1000</v>
       </c>
       <c r="F20" s="3">
         <v>-1000</v>
       </c>
       <c r="G20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H20" s="3">
         <v>6000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y20" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>15900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>15300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-36100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-29300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-38100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-24100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-25400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-25500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-47900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-25200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-45800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-44700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-27600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-261200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-5300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-4000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-11700</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1633,49 +1672,49 @@
         <v>1600</v>
       </c>
       <c r="E22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F22" s="3">
         <v>1500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1700</v>
       </c>
       <c r="G22" s="3">
         <v>1700</v>
       </c>
       <c r="H22" s="3">
-        <v>7800</v>
+        <v>1700</v>
       </c>
       <c r="I22" s="3">
         <v>7800</v>
       </c>
       <c r="J22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K22" s="3">
         <v>7700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3500</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>200</v>
@@ -1690,155 +1729,164 @@
         <v>200</v>
       </c>
       <c r="X22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-29400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-25300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-63600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-56600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-63700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-45700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-46200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-45600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-67500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-44400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-64900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-58500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-34800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-270000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-13700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-11900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-19500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-22500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1200</v>
-      </c>
-      <c r="O24" s="3">
-        <v>1300</v>
       </c>
       <c r="P24" s="3">
         <v>1300</v>
       </c>
       <c r="Q24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R24" s="3">
         <v>-5700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-30400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-25500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-72400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-58500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-64600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-47800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-47400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-46600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-68600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-45700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-66200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-52800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-36700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-270700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-14500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-12000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-19400</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y26" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-30400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-25500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-72400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-58500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-64600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-47800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-47400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-46600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-68600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-45700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-66200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-52800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-36700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-271000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-14900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-12400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-19700</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y27" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E32" s="3">
         <v>2600</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1000</v>
       </c>
       <c r="F32" s="3">
         <v>1000</v>
       </c>
       <c r="G32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-6000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y32" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-30400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-25500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-72400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-58500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-64600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-47800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-47400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-46600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-68600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-45700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-66200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-52800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-36700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-271000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-6700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-14900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-12400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-19700</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y33" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-30400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-25500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-72400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-58500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-64600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-47800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-47400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-46600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-68600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-45700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-66200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-52800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-36700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-271000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-6700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-14900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-12400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-19700</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y35" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43131</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43039</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42947</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42855</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42766</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,62 +2833,63 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>638200</v>
+      </c>
+      <c r="E41" s="3">
         <v>509100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>503900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>518600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>519000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>566100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>375000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>404300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>442200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>241200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>197700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>224300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>236500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>517800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1094100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>818800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>269400</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2819,53 +2905,56 @@
       <c r="Y41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>329400</v>
+      </c>
+      <c r="E42" s="3">
         <v>293800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>314600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>304300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>261700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>207500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>223600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>269800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>315700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>414900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>456100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>526000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>515600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>251200</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>11</v>
       </c>
@@ -2881,8 +2970,8 @@
       <c r="V42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
+      <c r="W42" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="X42" s="3">
         <v>0</v>
@@ -2890,62 +2979,65 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>314200</v>
+      </c>
+      <c r="E43" s="3">
         <v>453500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>320300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>298700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>265600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>340500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>283600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>241500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>233800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>250300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>177400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>154200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>130500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>185200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>142700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>122100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>116200</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2961,8 +3053,11 @@
       <c r="Y43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,62 +3127,65 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>80700</v>
+      </c>
+      <c r="E45" s="3">
         <v>63200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>67800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>61200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>65200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>48400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>47600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>52400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>51500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>37400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>38200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>39000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>39500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>30300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>28700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>27100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>30100</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>11</v>
       </c>
@@ -3103,62 +3201,65 @@
       <c r="Y45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1362500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1319600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1206600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1182800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1111400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1162300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>929800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>968000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1043200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>943900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>869400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>943500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>922100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>984500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1265500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>968100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>415700</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>11</v>
       </c>
@@ -3174,53 +3275,56 @@
       <c r="Y46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>94800</v>
+      </c>
+      <c r="E47" s="3">
         <v>94900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>89800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>64700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>95500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>93300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>77600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>67100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>141000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>240600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>259000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>181400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>186000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>164200</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>11</v>
       </c>
@@ -3236,8 +3340,8 @@
       <c r="V47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
+      <c r="W47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="X47" s="3">
         <v>0</v>
@@ -3245,62 +3349,65 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>300300</v>
+      </c>
+      <c r="E48" s="3">
         <v>310700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>310400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>314600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>316300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>324400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>320000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>319000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>296300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>278100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>242500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>229400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>227500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>75800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>74000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>60400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>60100</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>11</v>
       </c>
@@ -3316,62 +3423,65 @@
       <c r="Y48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>441300</v>
+      </c>
+      <c r="E49" s="3">
         <v>453900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>458200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>465900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>466500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>472000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>476900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>485100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>245800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>251400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>255800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>260500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>264300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>269400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>273700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>45500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>47400</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>11</v>
       </c>
@@ -3387,8 +3497,11 @@
       <c r="Y49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,62 +3645,65 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>375200</v>
+      </c>
+      <c r="E52" s="3">
         <v>362200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>345600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>327700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>307300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>284500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>246800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>214200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>195100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>177100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>159700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>147000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>138600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>121400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>106300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>95700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>91300</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>11</v>
       </c>
@@ -3600,8 +3719,11 @@
       <c r="Y52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,62 +3793,65 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2574100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2541300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2410500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2355700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2297100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2336500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2051100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2053300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1921500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1891100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1786400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1761800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1738400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1615400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1719400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1169700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>614500</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>11</v>
       </c>
@@ -3742,8 +3867,11 @@
       <c r="Y54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,62 +3925,63 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E57" s="3">
         <v>52800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>47700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>14900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>37400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>32300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>33100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>21500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>28100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>29100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>23500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>21400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>19600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>22100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>16700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>13300</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>11</v>
       </c>
@@ -3867,8 +3997,11 @@
       <c r="Y57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3876,20 +4009,20 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>11500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>20500</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>11</v>
       </c>
@@ -3905,8 +4038,8 @@
       <c r="N58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3938,62 +4071,65 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1317500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1318800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1201100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1174000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1069700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1035300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>890800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>821000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>708100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>665800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>559400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>550700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>501200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>496700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>412600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>372900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>349200</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>11</v>
       </c>
@@ -4009,62 +4145,65 @@
       <c r="Y59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1343700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1371600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1260400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1209600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1097900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1093200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>923100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>854000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>729600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>694000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>588500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>574100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>522600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>516300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>434600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>389600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>362500</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>11</v>
       </c>
@@ -4080,56 +4219,59 @@
       <c r="Y60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>719600</v>
+      </c>
+      <c r="E61" s="3">
         <v>718500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>718800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>730300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>742600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>696600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>486100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>479100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>472200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>465300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>458600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>451900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>445400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>438900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>432600</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4151,62 +4293,65 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>161900</v>
+      </c>
+      <c r="E62" s="3">
         <v>175600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>191700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>203900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>213400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>221000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>215800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>218300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>196900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>185500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>169900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>169100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>172700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>45800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>42100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>36600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>37900</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>11</v>
       </c>
@@ -4222,8 +4367,11 @@
       <c r="Y62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,62 +4589,65 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2225200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2265800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2170900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2143800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2053900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2010800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1625100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1551400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1398700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1344800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1217000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1195200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1140700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1001100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>909300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>426200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>400300</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>11</v>
       </c>
@@ -4506,8 +4663,11 @@
       <c r="Y66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4726,11 +4893,11 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>547900</v>
       </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,62 +4987,65 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1465600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1438200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1407700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1402100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1376600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1380500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1308000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1249500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1185000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1137200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1089800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1043200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-974500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-928800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-862500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-809700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-773000</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>11</v>
       </c>
@@ -4888,8 +5061,11 @@
       <c r="Y72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,62 +5283,65 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>348900</v>
+      </c>
+      <c r="E76" s="3">
         <v>275500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>239600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>211900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>243200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>325700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>426000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>501900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>522800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>546300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>569400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>566700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>597700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>614400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>810200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>743500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-333700</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>11</v>
       </c>
@@ -5172,8 +5357,11 @@
       <c r="Y76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43131</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43039</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42947</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42855</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42766</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-30400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-25500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-72400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-58500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-64600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-47800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-47400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-46600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-68600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-45700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-66200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-52800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-36700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-271000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-6700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-14900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-12400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-19700</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y81" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E83" s="3">
         <v>20800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>20200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>21000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>20000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>19600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>19500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>17900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>14000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12300</v>
-      </c>
-      <c r="O83" s="3">
-        <v>12000</v>
       </c>
       <c r="P83" s="3">
         <v>12000</v>
       </c>
       <c r="Q83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="R83" s="3">
         <v>10300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>7700</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X83" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>196300</v>
+      </c>
+      <c r="E89" s="3">
         <v>87800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>105400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>177700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>135600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>62200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>57400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>118100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>59100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>45500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>26400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>45700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>34100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>22700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>15000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>32000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>11600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>12100</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Y89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-18300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-26400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-30000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-14600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4300</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-52800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-34400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-70500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-18800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>9700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-79300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>169700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>29300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-19100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-18200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-313500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-426400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-227400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3900</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-73900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-65400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-142400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-113000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>143500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-95200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-81700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-25500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-31300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-19600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-13300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-181100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>498100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>530500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>5600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>8000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>7700</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Y100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1700</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X101" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Y101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>129900</v>
+      </c>
+      <c r="E102" s="3">
         <v>5500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-14700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-47100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>191100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-29300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-38000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>201000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>43400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-26300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-12200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-281500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-576300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>275300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>549400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>12400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>35300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>14500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>17600</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Y102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOCU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOCU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
   <si>
     <t>DOCU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43039</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42947</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42855</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42766</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>622200</v>
+      </c>
+      <c r="E8" s="3">
         <v>588700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>580800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>545500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>511800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>469100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>430900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>382900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>342200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>297000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>274900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>249500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>235600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>214000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>199700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>178400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>167000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>155800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>148900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>130600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>125500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>113500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>108400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>136700</v>
+      </c>
+      <c r="E9" s="3">
         <v>132400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>131500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>116000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>113800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>105200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>101600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>97800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>90600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>74000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>68100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>62000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>61200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>52000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>52700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>45100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>36400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>58300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>31500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>31200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>28500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>27100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>28900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>485500</v>
+      </c>
+      <c r="E10" s="3">
         <v>456300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>449300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>429500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>398000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>363900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>329300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>285100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>251600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>223000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>206800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>187500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>174400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>162000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>147000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>133300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>130600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>97500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>117400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>99400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>97000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>86400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>79500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>126500</v>
+      </c>
+      <c r="E12" s="3">
         <v>112200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>110700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>102600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>94700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>85400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>80100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>73400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>63800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>54200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>52100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>48800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>47500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>37200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>42900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>38400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>33800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>70900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>23400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>22500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>23800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>22700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>21300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,32 +1183,35 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3">
         <v>1200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>3900</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="3">
         <v>33800</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1207,8 +1227,8 @@
       <c r="O14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1254,68 +1277,71 @@
       <c r="F15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="3">
         <v>3300</v>
-      </c>
-      <c r="H15" s="3">
-        <v>3400</v>
       </c>
       <c r="I15" s="3">
         <v>3400</v>
       </c>
       <c r="J15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K15" s="3">
         <v>4000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4300</v>
-      </c>
-      <c r="L15" s="3">
-        <v>2900</v>
       </c>
       <c r="M15" s="3">
         <v>2900</v>
       </c>
       <c r="N15" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="O15" s="3">
         <v>3000</v>
       </c>
       <c r="P15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>3100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2300</v>
-      </c>
-      <c r="S15" s="3">
-        <v>800</v>
       </c>
       <c r="T15" s="3">
         <v>800</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="U15" s="3">
+        <v>800</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W15" s="3">
         <v>2500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>800</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>663300</v>
+      </c>
+      <c r="E17" s="3">
         <v>607900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>606000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>548800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>534500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>479800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>489500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>431400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>338900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>317200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>293500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>256400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>262400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>236800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>204800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>423400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>155100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>142900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>139300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>132800</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z17" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-19200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-25200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-22700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-58600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-48500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-58600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-41900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-42300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-44000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-64700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-42400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-62700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-58400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-37800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-267600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-6200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-12300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-13800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-19300</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z18" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,156 +1548,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1000</v>
       </c>
       <c r="G20" s="3">
         <v>-1000</v>
       </c>
       <c r="H20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I20" s="3">
         <v>6000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z20" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>15900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>15300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-36100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-29300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-38100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-24100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-25400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-25500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-47900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-25200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-45800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-44700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-27600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-261200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-5300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-4000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-11700</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1675,49 +1715,49 @@
         <v>1600</v>
       </c>
       <c r="F22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G22" s="3">
         <v>1500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1700</v>
       </c>
       <c r="H22" s="3">
         <v>1700</v>
       </c>
       <c r="I22" s="3">
-        <v>7800</v>
+        <v>1700</v>
       </c>
       <c r="J22" s="3">
         <v>7800</v>
       </c>
       <c r="K22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="L22" s="3">
         <v>7700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3500</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U22" s="3">
         <v>200</v>
@@ -1732,161 +1772,170 @@
         <v>200</v>
       </c>
       <c r="Y22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-41700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-25500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-29400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-25300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-63600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-56600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-63700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-45700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-46200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-45600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-67500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-44400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-64900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-58500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-34800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-270000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-13700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-11900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-19500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-22500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E24" s="3">
         <v>1800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1200</v>
-      </c>
-      <c r="P24" s="3">
-        <v>1300</v>
       </c>
       <c r="Q24" s="3">
         <v>1300</v>
       </c>
       <c r="R24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S24" s="3">
         <v>-5700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-27400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-30400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-25500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-72400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-58500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-64600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-47800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-47400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-46600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-68600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-45700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-66200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-52800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-36700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-270700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-6400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-14500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-12000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-19400</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z26" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-27400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-30400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-25500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-72400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-58500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-64600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-47800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-47400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-46600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-68600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-45700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-66200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-52800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-36700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-271000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-6700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-14900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-12400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-19700</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z27" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>4700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2600</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1000</v>
       </c>
       <c r="G32" s="3">
         <v>1000</v>
       </c>
       <c r="H32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-6000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z32" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-27400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-30400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-25500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-72400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-58500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-64600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-47800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-47400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-46600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-68600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-45700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-66200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-52800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-36700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-271000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-6700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-14900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-12400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-19700</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z33" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-27400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-30400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-25500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-72400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-58500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-64600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-47800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-47400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-46600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-68600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-45700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-66200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-52800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-36700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-271000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-6700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-14900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-12400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-19700</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z35" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43039</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42947</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42855</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42766</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,65 +2920,66 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>637200</v>
+      </c>
+      <c r="E41" s="3">
         <v>638200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>509100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>503900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>518600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>519000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>566100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>375000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>404300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>442200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>241200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>197700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>224300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>236500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>517800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1094100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>818800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>269400</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2908,56 +2995,59 @@
       <c r="Z41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>357500</v>
+      </c>
+      <c r="E42" s="3">
         <v>329400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>293800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>314600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>304300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>261700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>207500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>223600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>269800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>315700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>414900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>456100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>526000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>515600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>251200</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>11</v>
       </c>
@@ -2973,8 +3063,8 @@
       <c r="W42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
+      <c r="X42" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Y42" s="3">
         <v>0</v>
@@ -2982,65 +3072,68 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>348900</v>
+      </c>
+      <c r="E43" s="3">
         <v>314200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>453500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>320300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>298700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>265600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>340500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>283600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>241500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>233800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>250300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>177400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>154200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>130500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>185200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>142700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>122100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>116200</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>11</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,65 +3226,68 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E45" s="3">
         <v>80700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>63200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>67800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>61200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>65200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>48400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>47600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>52400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>51500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>37400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>38200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>39000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>39500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>30300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>28700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>27100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>30100</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>11</v>
       </c>
@@ -3204,65 +3303,68 @@
       <c r="Z45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1422800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1362500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1319600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1206600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1182800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1111400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1162300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>929800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>968000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1043200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>943900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>869400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>943500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>922100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>984500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1265500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>968100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>415700</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>11</v>
       </c>
@@ -3278,56 +3380,59 @@
       <c r="Z46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>133200</v>
+      </c>
+      <c r="E47" s="3">
         <v>94800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>94900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>89800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>64700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>95500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>93300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>77600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>67100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>141000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>240600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>259000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>181400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>186000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>164200</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>11</v>
       </c>
@@ -3343,8 +3448,8 @@
       <c r="W47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
+      <c r="X47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Y47" s="3">
         <v>0</v>
@@ -3352,65 +3457,68 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>286700</v>
+      </c>
+      <c r="E48" s="3">
         <v>300300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>310700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>310400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>314600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>316300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>324400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>320000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>319000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>296300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>278100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>242500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>229400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>227500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>75800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>74000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>60400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>60100</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>11</v>
       </c>
@@ -3426,65 +3534,68 @@
       <c r="Z48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>434600</v>
+      </c>
+      <c r="E49" s="3">
         <v>441300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>453900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>458200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>465900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>466500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>472000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>476900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>485100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>245800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>251400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>255800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>260500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>264300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>269400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>273700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>45500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>47400</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>11</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,65 +3765,68 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>390000</v>
+      </c>
+      <c r="E52" s="3">
         <v>375200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>362200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>345600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>327700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>307300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>284500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>246800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>214200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>195100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>177100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>159700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>147000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>138600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>121400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>106300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>95700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>91300</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>11</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,65 +3919,68 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2667300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2574100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2541300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2410500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2355700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2297100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2336500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2051100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2053300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1921500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1891100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1786400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1761800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1738400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1615400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1719400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1169700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>614500</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>11</v>
       </c>
@@ -3870,8 +3996,11 @@
       <c r="Z54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,65 +4056,66 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E57" s="3">
         <v>26200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>52800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>47700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>33600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>14900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>37400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>32300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>21500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>28100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>29100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>23500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>21400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>19600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>22100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>16700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>13300</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>11</v>
       </c>
@@ -4000,32 +4131,35 @@
       <c r="Z57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>11500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>20500</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>11</v>
       </c>
@@ -4041,8 +4175,8 @@
       <c r="O58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -4074,65 +4208,68 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1357800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1317500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1318800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1201100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1174000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1069700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1035300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>890800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>821000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>708100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>665800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>559400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>550700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>501200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>496700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>412600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>372900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>349200</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>11</v>
       </c>
@@ -4148,65 +4285,68 @@
       <c r="Z59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1402200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1343700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1371600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1260400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1209600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1097900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1093200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>923100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>854000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>729600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>694000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>588500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>574100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>522600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>516300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>434600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>389600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>362500</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>11</v>
       </c>
@@ -4222,59 +4362,62 @@
       <c r="Z60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>720700</v>
+      </c>
+      <c r="E61" s="3">
         <v>719600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>718500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>718800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>730300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>742600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>696600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>486100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>479100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>472200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>465300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>458600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>451900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>445400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>438900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>432600</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4296,65 +4439,68 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>137300</v>
+      </c>
+      <c r="E62" s="3">
         <v>161900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>175600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>191700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>203900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>213400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>221000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>215800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>218300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>196900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>185500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>169900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>169100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>172700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>45800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>42100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>36600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>37900</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>11</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,65 +4747,68 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2260200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2225200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2265800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2170900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2143800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2053900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2010800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1625100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1551400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1398700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1344800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1217000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1195200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1140700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1001100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>909300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>426200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>400300</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>11</v>
       </c>
@@ -4666,8 +4824,11 @@
       <c r="Z66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4896,11 +5064,11 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>547900</v>
       </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
       <c r="V70" s="3">
         <v>0</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,65 +5161,68 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1535600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1465600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1438200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1407700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1402100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1376600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1380500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1308000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1249500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1185000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1137200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1089800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1043200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-974500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-928800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-862500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-809700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-773000</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>11</v>
       </c>
@@ -5064,8 +5238,11 @@
       <c r="Z72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,65 +5469,68 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>407100</v>
+      </c>
+      <c r="E76" s="3">
         <v>348900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>275500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>239600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>211900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>243200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>325700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>426000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>501900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>522800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>546300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>569400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>566700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>597700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>614400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>810200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>743500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-333700</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>11</v>
       </c>
@@ -5360,8 +5546,11 @@
       <c r="Z76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43039</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42947</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42855</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42766</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-27400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-30400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-25500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-72400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-58500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-64600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-47800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-47400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-46600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-68600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-45700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-66200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-52800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-36700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-271000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-6700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-14900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-12400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-19700</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z81" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E83" s="3">
         <v>21300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>20800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>20200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>21000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>20000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>19600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>17900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>14000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12300</v>
-      </c>
-      <c r="P83" s="3">
-        <v>12000</v>
       </c>
       <c r="Q83" s="3">
         <v>12000</v>
       </c>
       <c r="R83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="S83" s="3">
         <v>10300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>8300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>7700</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y83" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Z83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>120900</v>
+      </c>
+      <c r="E89" s="3">
         <v>196300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>87800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>105400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>177700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>135600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>62200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>57400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>118100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>59100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>45500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>26400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>45700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>34100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>22700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>15000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>32000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>11600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>12100</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Z89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-17500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-26400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-30000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-12300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-14600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4300</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-83300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-62500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-52800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-34400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-70500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-18800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>9700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-79300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>169700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>29300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-19100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-18200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-313500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-426400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-227400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3900</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y94" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Z94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E100" s="3">
         <v>1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-73900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-65400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-142400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-113000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>143500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-95200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-81700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-25500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-31300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-19600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-181100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>498100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>530500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>5600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>8000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>7700</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y100" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Z100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1700</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y101" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Z101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>129900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-14700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-47100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>191100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-29300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-38000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>201000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>43400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-26300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-12200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-281500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-576300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>275300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>549400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>12400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>35300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>14500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>17600</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOCU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOCU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
   <si>
     <t>DOCU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43312</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43131</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43039</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42947</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42855</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42766</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>645500</v>
+      </c>
+      <c r="E8" s="3">
         <v>622200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>588700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>580800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>545500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>511800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>469100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>430900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>382900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>342200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>297000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>274900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>249500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>235600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>214000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>199700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>178400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>167000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>155800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>148900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>130600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>125500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>113500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>108400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>129500</v>
+      </c>
+      <c r="E9" s="3">
         <v>136700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>132400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>131500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>116000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>113800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>105200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>101600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>97800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>90600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>74000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>68100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>62000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>61200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>52000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>52700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>45100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>36400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>58300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>31500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>31200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>28500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>27100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>28900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>516000</v>
+      </c>
+      <c r="E10" s="3">
         <v>485500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>456300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>449300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>429500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>398000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>363900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>329300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>285100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>251600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>223000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>206800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>187500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>174400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>162000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>147000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>133300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>130600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>97500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>117400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>99400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>97000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>86400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>79500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>115900</v>
+      </c>
+      <c r="E12" s="3">
         <v>126500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>112200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>110700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>102600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>94700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>85400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>80100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>73400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>63800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>54200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>52100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>48800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>47500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>37200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>42900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>38400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>33800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>70900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>23400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>22500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>23800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>22700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>21300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,35 +1203,38 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
+      <c r="D14" s="3">
+        <v>28100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3">
         <v>1200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>3900</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="3">
         <v>33800</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1230,8 +1250,8 @@
       <c r="P14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1280,68 +1303,71 @@
       <c r="G15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="3">
         <v>3300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>3400</v>
       </c>
       <c r="J15" s="3">
         <v>3400</v>
       </c>
       <c r="K15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L15" s="3">
         <v>4000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4300</v>
-      </c>
-      <c r="M15" s="3">
-        <v>2900</v>
       </c>
       <c r="N15" s="3">
         <v>2900</v>
       </c>
       <c r="O15" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="P15" s="3">
         <v>3000</v>
       </c>
       <c r="Q15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R15" s="3">
         <v>3100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>2300</v>
-      </c>
-      <c r="T15" s="3">
-        <v>800</v>
       </c>
       <c r="U15" s="3">
         <v>800</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W15" s="3">
+      <c r="V15" s="3">
+        <v>800</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X15" s="3">
         <v>2500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>800</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AA15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>672900</v>
+      </c>
+      <c r="E17" s="3">
         <v>663300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>607900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>606000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>548800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>534500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>479800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>489500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>431400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>338900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>317200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>293500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>256400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>262400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>236800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>204800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>423400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>155100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>142900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>139300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>132800</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AA17" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-41100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-19200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-25200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-22700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-10700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-58600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-48500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-58600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-41900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-42300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-44000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-64700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-42400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-62700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-58400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-37800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-267600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-6200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-12300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-13800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-19300</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AA18" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,167 +1582,174 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1000</v>
       </c>
       <c r="H20" s="3">
         <v>-1000</v>
       </c>
       <c r="I20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J20" s="3">
         <v>6000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AA20" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-18900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>15900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>15300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-36100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-29300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-38100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-24100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-25400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-25500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-47900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-25200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-45800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-44700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-27600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-261200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-5300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-11700</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E22" s="3">
         <v>1600</v>
@@ -1718,49 +1758,49 @@
         <v>1600</v>
       </c>
       <c r="G22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H22" s="3">
         <v>1500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1700</v>
       </c>
       <c r="I22" s="3">
         <v>1700</v>
       </c>
       <c r="J22" s="3">
-        <v>7800</v>
+        <v>1700</v>
       </c>
       <c r="K22" s="3">
         <v>7800</v>
       </c>
       <c r="L22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="M22" s="3">
         <v>7700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3500</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V22" s="3">
         <v>200</v>
@@ -1775,167 +1815,176 @@
         <v>200</v>
       </c>
       <c r="Z22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-41700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-25500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-29400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-25300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-63600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-56600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-63700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-45700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-46200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-45600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-67500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-44400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-64900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-58500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-34800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-270000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-13700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-11900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-19500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-22500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E24" s="3">
         <v>3400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>1300</v>
       </c>
       <c r="R24" s="3">
         <v>1300</v>
       </c>
       <c r="S24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T24" s="3">
         <v>-5700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-45100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-27400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-30400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-25500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-72400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-58500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-64600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-47800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-47400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-46600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-68600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-45700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-66200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-52800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-36700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-270700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-6400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-14500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-12000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-19400</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AA26" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-45100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-27400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-30400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-25500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-72400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-58500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-64600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-47800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-47400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-46600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-68600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-45700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-66200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-52800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-36700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-271000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-6700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-14900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-12400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-19700</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AA27" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2600</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1000</v>
       </c>
       <c r="H32" s="3">
         <v>1000</v>
       </c>
       <c r="I32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-6000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AA32" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-45100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-27400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-30400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-25500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-72400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-58500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-64600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-47800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-47400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-46600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-68600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-45700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-66200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-52800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-36700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-271000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-6700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-14900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-12400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-19700</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AA33" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-45100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-27400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-30400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-25500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-72400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-58500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-64600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-47800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-47400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-46600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-68600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-45700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-66200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-52800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-36700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-271000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-6700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-14900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-12400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-19700</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AA35" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43312</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43131</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43039</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42947</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42855</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42766</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,68 +3007,69 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>632600</v>
+      </c>
+      <c r="E41" s="3">
         <v>637200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>638200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>509100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>503900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>518600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>519000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>566100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>375000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>404300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>442200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>241200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>197700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>224300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>236500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>517800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1094100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>818800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>269400</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2998,59 +3085,62 @@
       <c r="AA41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>342700</v>
+      </c>
+      <c r="E42" s="3">
         <v>357500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>329400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>293800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>314600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>304300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>261700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>207500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>223600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>269800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>315700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>414900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>456100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>526000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>515600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>251200</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>11</v>
       </c>
@@ -3066,8 +3156,8 @@
       <c r="X42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Y42" s="3">
-        <v>0</v>
+      <c r="Y42" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Z42" s="3">
         <v>0</v>
@@ -3075,68 +3165,71 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>436200</v>
+      </c>
+      <c r="E43" s="3">
         <v>348900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>314200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>453500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>320300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>298700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>265600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>340500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>283600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>241500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>233800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>250300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>177400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>154200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>130500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>185200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>142700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>122100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>116200</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>11</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,68 +3325,71 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>68800</v>
+      </c>
+      <c r="E45" s="3">
         <v>79100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>80700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>63200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>67800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>61200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>65200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>48400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>47600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>52400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>51500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>37400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>38200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>39000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>39500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>30300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>28700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>27100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>30100</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>11</v>
       </c>
@@ -3306,68 +3405,71 @@
       <c r="AA45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1480400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1422800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1362500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1319600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1206600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1182800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1111400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1162300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>929800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>968000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1043200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>943900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>869400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>943500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>922100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>984500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1265500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>968100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>415700</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>11</v>
       </c>
@@ -3383,59 +3485,62 @@
       <c r="AA46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>129800</v>
+      </c>
+      <c r="E47" s="3">
         <v>133200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>94800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>94900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>89800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>64700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>95500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>93300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>77600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>67100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>141000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>240600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>259000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>181400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>186000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>164200</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>11</v>
       </c>
@@ -3451,8 +3556,8 @@
       <c r="X47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Y47" s="3">
-        <v>0</v>
+      <c r="Y47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Z47" s="3">
         <v>0</v>
@@ -3460,68 +3565,71 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>288300</v>
+      </c>
+      <c r="E48" s="3">
         <v>286700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>300300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>310700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>310400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>314600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>316300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>324400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>320000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>319000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>296300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>278100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>242500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>229400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>227500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>75800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>74000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>60400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>60100</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>11</v>
       </c>
@@ -3537,68 +3645,71 @@
       <c r="AA48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>427700</v>
+      </c>
+      <c r="E49" s="3">
         <v>434600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>441300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>453900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>458200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>465900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>466500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>472000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>476900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>485100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>245800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>251400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>255800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>260500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>264300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>269400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>273700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>45500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>47400</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>11</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,68 +3885,71 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>405500</v>
+      </c>
+      <c r="E52" s="3">
         <v>390000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>375200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>362200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>345600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>327700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>307300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>284500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>246800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>214200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>195100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>177100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>159700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>147000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>138600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>121400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>106300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>95700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>91300</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>11</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,68 +4045,71 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2731600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2667300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2574100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2541300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2410500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2355700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2297100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2336500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2051100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2053300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1921500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1891100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1786400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1761800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1738400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1615400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1719400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1169700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>614500</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>11</v>
       </c>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,68 +4187,69 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E57" s="3">
         <v>44400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>26200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>52800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>47700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>33600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>14900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>37400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>32300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>21500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>28100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>29100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>23500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>21400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>19600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>22100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>16700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>13300</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>11</v>
       </c>
@@ -4134,35 +4265,38 @@
       <c r="AA57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>11500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>13300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>20500</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>11</v>
       </c>
@@ -4178,8 +4312,8 @@
       <c r="P58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -4211,68 +4345,71 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1365400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1357800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1317500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1318800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1201100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1174000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1069700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1035300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>890800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>821000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>708100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>665800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>559400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>550700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>501200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>496700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>412600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>372900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>349200</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>11</v>
       </c>
@@ -4288,68 +4425,71 @@
       <c r="AA59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1449500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1402200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1343700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1371600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1260400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1209600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1097900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1093200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>923100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>854000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>729600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>694000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>588500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>574100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>522600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>516300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>434600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>389600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>362500</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>11</v>
       </c>
@@ -4365,62 +4505,65 @@
       <c r="AA60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>684900</v>
+      </c>
+      <c r="E61" s="3">
         <v>720700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>719600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>718500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>718800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>730300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>742600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>696600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>486100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>479100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>472200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>465300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>458600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>451900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>445400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>438900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>432600</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4442,68 +4585,71 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>128700</v>
+      </c>
+      <c r="E62" s="3">
         <v>137300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>161900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>175600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>191700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>203900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>213400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>221000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>215800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>218300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>196900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>185500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>169900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>169100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>172700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>45800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>42100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>36600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>37900</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>11</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,68 +4905,71 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2263100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2260200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2225200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2265800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2170900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2143800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2053900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2010800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1625100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1551400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1398700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1344800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1217000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1195200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1140700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1001100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>909300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>426200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>400300</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>11</v>
       </c>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5067,11 +5235,11 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
         <v>547900</v>
       </c>
-      <c r="V70" s="3">
-        <v>0</v>
-      </c>
       <c r="W70" s="3">
         <v>0</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,68 +5335,71 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1603500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1535600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1465600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1438200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1407700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1402100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1376600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1380500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1308000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1249500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1185000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1137200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1089800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1043200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-974500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-928800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-862500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-809700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-773000</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>11</v>
       </c>
@@ -5241,8 +5415,11 @@
       <c r="AA72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,68 +5655,71 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>468500</v>
+      </c>
+      <c r="E76" s="3">
         <v>407100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>348900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>275500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>239600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>211900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>243200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>325700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>426000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>501900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>522800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>546300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>569400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>566700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>597700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>614400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>810200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>743500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-333700</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>11</v>
       </c>
@@ -5549,8 +5735,11 @@
       <c r="AA76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43312</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43131</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43039</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42947</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42855</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42766</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-45100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-27400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-30400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-25500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-72400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-58500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-64600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-47800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-47400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-46600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-68600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-45700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-66200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-52800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-36700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-271000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-6700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-14900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-12400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-19700</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AA81" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E83" s="3">
         <v>21100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>20800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>20200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>20000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>17900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>14000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12300</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>12000</v>
       </c>
       <c r="R83" s="3">
         <v>12000</v>
       </c>
       <c r="S83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="T83" s="3">
         <v>10300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>7100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>8000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>8300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>7700</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z83" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E89" s="3">
         <v>120900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>196300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>87800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>105400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>177700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>135600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>62200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>57400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>118100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>59100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>45500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>26400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>45700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>34100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>22700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>15000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>32000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>11600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>12100</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z89" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AA89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-21700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-17500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-26400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-30000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-12300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z91" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AA91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-83300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-62500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-52800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-34400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-70500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-18800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>9700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-79300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>169700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>29300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-19100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-313500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-426400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-227400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3900</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z94" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-48500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-35500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-73900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-65400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-142400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-113000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>143500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-95200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-81700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-25500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-31300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-19600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-13300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-181100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>498100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>530500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>5600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>8000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>7700</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z100" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AA100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1700</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z101" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AA101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>129900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-14700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-47100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>191100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-29300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-38000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>201000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>43400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-26300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-281500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-576300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>275300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>549400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>12400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>35300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>14500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>17600</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AA102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOCU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOCU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
   <si>
     <t>DOCU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,372 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42947</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42766</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>659600</v>
+      </c>
+      <c r="E8" s="3">
         <v>645500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>622200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>588700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>580800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>545500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>511800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>469100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>430900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>382900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>342200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>297000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>274900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>249500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>235600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>214000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>199700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>178400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>167000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>155800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>148900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>130600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>125500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>113500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>108400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>137400</v>
+      </c>
+      <c r="E9" s="3">
         <v>129500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>136700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>132400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>131500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>116000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>113800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>105200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>101600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>97800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>90600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>74000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>68100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>62000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>61200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>52000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>52700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>45100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>36400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>58300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>31500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>31200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>28500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>27100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>28900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>522200</v>
+      </c>
+      <c r="E10" s="3">
         <v>516000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>485500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>456300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>449300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>429500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>398000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>363900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>329300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>285100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>251600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>223000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>206800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>187500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>174400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>162000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>147000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>133300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>130600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>97500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>117400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>99400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>97000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>86400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>79500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,88 +1059,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>125900</v>
+      </c>
+      <c r="E12" s="3">
         <v>115900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>126500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>112200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>110700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>102600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>94700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>85400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>80100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>73400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>63800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>54200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>52100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>48800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>47500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>37200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>42900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>38400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>33800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>70900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>23400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>22500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>23800</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>22700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>21300</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,38 +1223,41 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
         <v>28100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="3">
         <v>1200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>3900</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="3">
         <v>33800</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1253,8 +1273,8 @@
       <c r="Q14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1286,8 +1306,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1306,68 +1329,71 @@
       <c r="H15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="3">
         <v>3300</v>
-      </c>
-      <c r="J15" s="3">
-        <v>3400</v>
       </c>
       <c r="K15" s="3">
         <v>3400</v>
       </c>
       <c r="L15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M15" s="3">
         <v>4000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4300</v>
-      </c>
-      <c r="N15" s="3">
-        <v>2900</v>
       </c>
       <c r="O15" s="3">
         <v>2900</v>
       </c>
       <c r="P15" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="Q15" s="3">
         <v>3000</v>
       </c>
       <c r="R15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S15" s="3">
         <v>3100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>2300</v>
-      </c>
-      <c r="U15" s="3">
-        <v>800</v>
       </c>
       <c r="V15" s="3">
         <v>800</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X15" s="3">
+      <c r="W15" s="3">
+        <v>800</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y15" s="3">
         <v>2500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>800</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AB15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>659900</v>
+      </c>
+      <c r="E17" s="3">
         <v>672900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>663300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>607900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>606000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>548800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>534500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>479800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>489500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>431400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>338900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>317200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>293500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>256400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>262400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>236800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>204800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>423400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>155100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>142900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>139300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>132800</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AB17" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-27400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-41100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-19200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-25200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-22700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-58600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-48500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-58600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-41900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-42300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-44000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-64700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-42400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-62700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-58400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-37800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-267600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-6200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-12300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-13800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-19300</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AB18" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,176 +1616,183 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1000</v>
       </c>
       <c r="I20" s="3">
         <v>-1000</v>
       </c>
       <c r="J20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K20" s="3">
         <v>6000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AB20" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-18900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>15900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>15300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-36100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-29300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-38100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-24100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-25400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-25500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-47900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-25200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-45800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-44700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-27600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-261200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-5300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-11700</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AB21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E22" s="3">
         <v>1500</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1600</v>
       </c>
       <c r="F22" s="3">
         <v>1600</v>
@@ -1761,49 +1801,49 @@
         <v>1600</v>
       </c>
       <c r="H22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I22" s="3">
         <v>1500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1700</v>
       </c>
       <c r="J22" s="3">
         <v>1700</v>
       </c>
       <c r="K22" s="3">
-        <v>7800</v>
+        <v>1700</v>
       </c>
       <c r="L22" s="3">
         <v>7800</v>
       </c>
       <c r="M22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="N22" s="3">
         <v>7700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3500</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W22" s="3">
         <v>200</v>
@@ -1818,173 +1858,182 @@
         <v>200</v>
       </c>
       <c r="AA22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-28100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-41700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-25500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-29400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-25300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-63600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-56600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-63700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-45700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-46200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-45600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-67500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-44400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-64900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-58500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-34800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-270000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-4000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-13700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-11900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-19500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-22500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>1800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1200</v>
-      </c>
-      <c r="R24" s="3">
-        <v>1300</v>
       </c>
       <c r="S24" s="3">
         <v>1300</v>
       </c>
       <c r="T24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U24" s="3">
         <v>-5700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-29900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-45100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-27400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-30400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-25500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-72400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-58500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-64600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-47800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-47400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-46600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-68600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-45700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-66200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-52800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-36700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-270700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-6400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-14500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-12000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-19400</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AB26" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-29900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-45100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-27400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-30400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-25500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-72400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-58500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-64600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-47800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-47400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-46600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-68600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-45700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-66200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-52800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-36700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-271000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-6700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-14900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-12400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-19700</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AB27" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2610,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1000</v>
       </c>
       <c r="I32" s="3">
         <v>1000</v>
       </c>
       <c r="J32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-6000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AB32" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-29900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-45100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-27400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-30400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-25500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-72400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-58500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-64600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-47800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-47400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-46600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-68600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-45700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-66200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-52800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-36700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-271000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-6700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-14900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-12400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-19700</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AB33" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-29900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-45100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-27400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-30400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-25500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-72400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-58500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-64600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-47800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-47400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-46600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-68600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-45700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-66200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-52800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-36700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-271000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-6700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-14900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-12400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-19700</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AB35" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42947</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42766</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,71 +3094,72 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>721900</v>
+      </c>
+      <c r="E41" s="3">
         <v>632600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>637200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>638200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>509100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>503900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>518600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>519000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>566100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>375000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>404300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>442200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>241200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>197700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>224300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>236500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>517800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1094100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>818800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>269400</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>11</v>
       </c>
@@ -3088,62 +3175,65 @@
       <c r="AB41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>309800</v>
+      </c>
+      <c r="E42" s="3">
         <v>342700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>357500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>329400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>293800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>314600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>304300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>261700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>207500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>223600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>269800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>315700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>414900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>456100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>526000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>515600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>251200</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>11</v>
       </c>
@@ -3159,8 +3249,8 @@
       <c r="Y42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Z42" s="3">
-        <v>0</v>
+      <c r="Z42" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="AA42" s="3">
         <v>0</v>
@@ -3168,71 +3258,74 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>529400</v>
+      </c>
+      <c r="E43" s="3">
         <v>436200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>348900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>314200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>453500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>320300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>298700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>265600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>340500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>283600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>241500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>233800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>250300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>177400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>154200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>130500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>185200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>142700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>122100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>116200</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>11</v>
       </c>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,71 +3424,74 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E45" s="3">
         <v>68800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>79100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>80700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>63200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>67800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>61200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>65200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>48400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>47600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>52400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>51500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>37400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>38200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>39000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>39500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>30300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>28700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>27100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>30100</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>11</v>
       </c>
@@ -3408,71 +3507,74 @@
       <c r="AB45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1631000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1480400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1422800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1362500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1319600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1206600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1182800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1111400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1162300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>929800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>968000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1043200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>943900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>869400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>943500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>922100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>984500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1265500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>968100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>415700</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>11</v>
       </c>
@@ -3488,62 +3590,65 @@
       <c r="AB46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E47" s="3">
         <v>129800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>133200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>94800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>94900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>89800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>64700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>95500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>93300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>77600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>67100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>141000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>240600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>259000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>181400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>186000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>164200</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>11</v>
       </c>
@@ -3559,8 +3664,8 @@
       <c r="Y47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Z47" s="3">
-        <v>0</v>
+      <c r="Z47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="AA47" s="3">
         <v>0</v>
@@ -3568,71 +3673,74 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>341400</v>
+      </c>
+      <c r="E48" s="3">
         <v>288300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>286700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>300300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>310700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>310400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>314600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>316300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>324400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>320000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>319000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>296300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>278100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>242500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>229400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>227500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>75800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>74000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>60400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>60100</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>11</v>
       </c>
@@ -3648,71 +3756,74 @@
       <c r="AB48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>423900</v>
+      </c>
+      <c r="E49" s="3">
         <v>427700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>434600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>441300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>453900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>458200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>465900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>466500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>472000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>476900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>485100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>245800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>251400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>255800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>260500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>264300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>269400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>273700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>45500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>47400</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X49" s="3" t="s">
         <v>11</v>
       </c>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,71 +4005,74 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>430400</v>
+      </c>
+      <c r="E52" s="3">
         <v>405500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>390000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>375200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>362200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>345600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>327700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>307300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>284500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>246800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>214200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>195100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>177100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>159700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>147000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>138600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>121400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>106300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>95700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>91300</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>11</v>
       </c>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,71 +4171,74 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3012700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2731600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2667300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2574100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2541300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2410500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2355700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2297100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2336500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2051100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2053300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1921500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1891100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1786400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1761800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1738400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1615400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1719400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1169700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>614500</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>11</v>
       </c>
@@ -4128,8 +4254,11 @@
       <c r="AB54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,71 +4318,72 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E57" s="3">
         <v>47200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>44400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>26200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>52800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>47700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>33600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>14900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>37400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>32300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>33100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>21500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>28100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>29100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>23500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>21400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>19600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>22100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>16700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>13300</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>11</v>
       </c>
@@ -4268,38 +4399,41 @@
       <c r="AB57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>722900</v>
+      </c>
+      <c r="E58" s="3">
         <v>36900</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>11500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>13300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>20500</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>11</v>
       </c>
@@ -4315,8 +4449,8 @@
       <c r="Q58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -4348,71 +4482,74 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1461000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1365400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1357800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1317500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1318800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1201100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1174000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1069700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1035300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>890800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>821000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>708100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>665800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>559400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>550700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>501200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>496700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>412600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>372900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>349200</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>11</v>
       </c>
@@ -4428,71 +4565,74 @@
       <c r="AB59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2208300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1449500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1402200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1343700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1371600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1260400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1209600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1097900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1093200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>923100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>854000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>729600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>694000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>588500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>574100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>522600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>516300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>434600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>389600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>362500</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>11</v>
       </c>
@@ -4508,65 +4648,68 @@
       <c r="AB60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>684900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>720700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>719600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>718500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>718800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>730300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>742600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>696600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>486100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>479100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>472200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>465300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>458600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>451900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>445400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>438900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>432600</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4588,71 +4731,74 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>187100</v>
+      </c>
+      <c r="E62" s="3">
         <v>128700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>137300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>161900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>175600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>191700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>203900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>213400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>221000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>215800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>218300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>196900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>185500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>169900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>169100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>172700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>45800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>42100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>36600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>37900</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>11</v>
       </c>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,71 +5063,74 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2395400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2263100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2260200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2225200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2265800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2170900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2143800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2053900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2010800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1625100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1551400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1398700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1344800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1217000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1195200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1140700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1001100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>909300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>426200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>400300</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>11</v>
       </c>
@@ -4988,8 +5146,11 @@
       <c r="AB66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5238,11 +5406,11 @@
         <v>0</v>
       </c>
       <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
         <v>547900</v>
       </c>
-      <c r="W70" s="3">
-        <v>0</v>
-      </c>
       <c r="X70" s="3">
         <v>0</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,71 +5509,74 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1598700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1603500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1535600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1465600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1438200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1407700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1402100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1376600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1380500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1308000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1249500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1185000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1137200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1089800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1043200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-974500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-928800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-862500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-809700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-773000</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>11</v>
       </c>
@@ -5418,8 +5592,11 @@
       <c r="AB72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,71 +5841,74 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>617300</v>
+      </c>
+      <c r="E76" s="3">
         <v>468500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>407100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>348900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>275500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>239600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>211900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>243200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>325700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>426000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>501900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>522800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>546300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>569400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>566700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>597700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>614400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>810200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>743500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-333700</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>11</v>
       </c>
@@ -5738,8 +5924,11 @@
       <c r="AB76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42947</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42766</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-29900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-45100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-27400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-30400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-25500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-72400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-58500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-64600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-47800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-47400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-46600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-68600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-45700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-66200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-52800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-36700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-271000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-6700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-14900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-12400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-19700</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AB81" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6211,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E83" s="3">
         <v>21500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>21300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>20800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>20200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>21000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>20000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>17900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>14000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12300</v>
-      </c>
-      <c r="R83" s="3">
-        <v>12000</v>
       </c>
       <c r="S83" s="3">
         <v>12000</v>
       </c>
       <c r="T83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="U83" s="3">
         <v>10300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>7100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>8600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>8000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>8300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>7700</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AA83" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AB83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>137100</v>
+      </c>
+      <c r="E89" s="3">
         <v>52500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>120900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>196300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>87800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>105400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>177700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>135600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>62200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>57400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>118100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>59100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>45500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>26400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>45700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>34100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>22700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>15000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>32000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>11600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>12100</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AA89" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AB89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6823,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-16500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-21700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-17500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-18400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-26400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-30000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-14600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4300</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AA91" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AB91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-43500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-83300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-62500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-52800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-34400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-70500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-18800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>9700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-79300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>169700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>29300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-19100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-18200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-313500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-426400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-227400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3900</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AA94" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AB94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7516,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-48500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-35500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-73900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-65400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-142400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-113000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>143500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-95200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-81700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-25500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-31300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-19600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-13300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-181100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>498100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>530500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>5600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>4200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>8000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>7700</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AA100" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AB100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1700</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AA101" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AB101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>129900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-14700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-47100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>191100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-29300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-38000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>201000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>43400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-26300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-12200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-281500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-576300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>275300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>549400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>12400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>35300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>14500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>17600</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AA102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AB102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOCU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOCU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
   <si>
     <t>DOCU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,384 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43131</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43039</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42947</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42855</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42766</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>661400</v>
+      </c>
+      <c r="E8" s="3">
         <v>659600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>645500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>622200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>588700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>580800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>545500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>511800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>469100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>430900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>382900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>342200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>297000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>274900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>249500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>235600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>214000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>199700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>178400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>167000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>155800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>148900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>130600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>125500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>113500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>108400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>136500</v>
+      </c>
+      <c r="E9" s="3">
         <v>137400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>129500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>136700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>132400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>131500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>116000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>113800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>105200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>101600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>97800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>90600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>74000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>68100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>62000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>61200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>52000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>52700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>45100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>36400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>58300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>31500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>31200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>28500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>27100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>28900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>524900</v>
+      </c>
+      <c r="E10" s="3">
         <v>522200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>516000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>485500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>456300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>449300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>429500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>398000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>363900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>329300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>285100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>251600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>223000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>206800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>187500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>174400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>162000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>147000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>133300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>130600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>97500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>117400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>99400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>97000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>86400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>79500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,91 +1072,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>115400</v>
+      </c>
+      <c r="E12" s="3">
         <v>125900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>115900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>126500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>112200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>110700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>102600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>94700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>85400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>80100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>73400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>63800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>54200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>52100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>48800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>47500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>37200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>42900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>38400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>33800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>70900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>23400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>22500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>23800</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>22700</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>21300</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1226,41 +1242,44 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>28100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="3">
         <v>1200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>3900</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="3">
         <v>33800</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1276,8 +1295,8 @@
       <c r="R14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1309,8 +1328,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1332,68 +1354,71 @@
       <c r="I15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="3">
         <v>3300</v>
-      </c>
-      <c r="K15" s="3">
-        <v>3400</v>
       </c>
       <c r="L15" s="3">
         <v>3400</v>
       </c>
       <c r="M15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N15" s="3">
         <v>4000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4300</v>
-      </c>
-      <c r="O15" s="3">
-        <v>2900</v>
       </c>
       <c r="P15" s="3">
         <v>2900</v>
       </c>
       <c r="Q15" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="R15" s="3">
         <v>3000</v>
       </c>
       <c r="S15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T15" s="3">
         <v>3100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>2300</v>
-      </c>
-      <c r="V15" s="3">
-        <v>800</v>
       </c>
       <c r="W15" s="3">
         <v>800</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y15" s="3">
+      <c r="X15" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z15" s="3">
         <v>2500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>800</v>
       </c>
-      <c r="AB15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AC15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>666000</v>
+      </c>
+      <c r="E17" s="3">
         <v>659900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>672900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>663300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>607900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>606000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>548800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>534500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>479800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>489500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>431400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>338900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>317200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>293500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>256400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>262400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>236800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>204800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>423400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>155100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>142900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>139300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>132800</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AC17" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-27400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-41100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-19200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-25200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-22700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-58600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-48500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-58600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-41900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-42300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-44000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-64700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-42400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-62700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-58400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-37800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-267600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-12300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-13800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-19300</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AC18" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,185 +1649,192 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E20" s="3">
         <v>7300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1000</v>
       </c>
       <c r="J20" s="3">
         <v>-1000</v>
       </c>
       <c r="K20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L20" s="3">
         <v>6000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AC20" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E21" s="3">
         <v>29400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-18900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>15900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>15300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-36100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-29300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-38100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-24100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-25400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-25500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-47900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-25200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-45800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-44700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-27600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-261200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-11700</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AC21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1600</v>
       </c>
       <c r="G22" s="3">
         <v>1600</v>
@@ -1804,49 +1843,49 @@
         <v>1600</v>
       </c>
       <c r="I22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J22" s="3">
         <v>1500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1700</v>
       </c>
       <c r="K22" s="3">
         <v>1700</v>
       </c>
       <c r="L22" s="3">
-        <v>7800</v>
+        <v>1700</v>
       </c>
       <c r="M22" s="3">
         <v>7800</v>
       </c>
       <c r="N22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="O22" s="3">
         <v>7700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>7100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3500</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X22" s="3">
         <v>200</v>
@@ -1861,179 +1900,188 @@
         <v>200</v>
       </c>
       <c r="AB22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E23" s="3">
         <v>5400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-28100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-41700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-25500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-29400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-25300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-63600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-56600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-63700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-45700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-46200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-45600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-67500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-44400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-64900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-58500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-34800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-270000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-13700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-11900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-19500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-22500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1200</v>
-      </c>
-      <c r="S24" s="3">
-        <v>1300</v>
       </c>
       <c r="T24" s="3">
         <v>1300</v>
       </c>
       <c r="U24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V24" s="3">
         <v>-5700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>500</v>
+      </c>
+      <c r="E26" s="3">
         <v>4900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-29900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-45100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-27400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-30400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-25500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-72400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-58500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-64600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-47800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-47400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-46600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-68600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-45700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-66200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-52800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-36700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-270700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-6400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-14500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-12000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-19400</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AC26" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>500</v>
+      </c>
+      <c r="E27" s="3">
         <v>4900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-29900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-45100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-27400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-30400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-25500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-72400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-58500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-64600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-47800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-47400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-46600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-68600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-45700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-66200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-52800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-36700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-271000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-6700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-14900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-12400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-19700</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AC27" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2600</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1000</v>
       </c>
       <c r="J32" s="3">
         <v>1000</v>
       </c>
       <c r="K32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L32" s="3">
         <v>-6000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>100</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AC32" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>500</v>
+      </c>
+      <c r="E33" s="3">
         <v>4900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-29900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-45100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-27400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-30400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-25500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-72400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-58500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-64600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-47800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-47400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-46600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-68600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-45700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-66200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-52800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-36700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-271000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-6700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-14900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-12400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-19700</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AC33" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>500</v>
+      </c>
+      <c r="E35" s="3">
         <v>4900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-29900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-45100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-27400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-30400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-25500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-72400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-58500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-64600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-47800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-47400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-46600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-68600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-45700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-66200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-52800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-36700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-271000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-6700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-14900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-12400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-19700</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AC35" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43131</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43039</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42947</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42855</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42766</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,74 +3180,75 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>940500</v>
+      </c>
+      <c r="E41" s="3">
         <v>721900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>632600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>637200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>638200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>509100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>503900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>518600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>519000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>566100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>375000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>404300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>442200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>241200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>197700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>224300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>236500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>517800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1094100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>818800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>269400</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>11</v>
       </c>
@@ -3178,65 +3264,68 @@
       <c r="AC41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>350800</v>
+      </c>
+      <c r="E42" s="3">
         <v>309800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>342700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>357500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>329400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>293800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>314600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>304300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>261700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>207500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>223600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>269800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>315700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>414900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>456100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>526000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>515600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>251200</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>11</v>
       </c>
@@ -3252,8 +3341,8 @@
       <c r="Z42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AA42" s="3">
-        <v>0</v>
+      <c r="AA42" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="AB42" s="3">
         <v>0</v>
@@ -3261,74 +3350,77 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>426100</v>
+      </c>
+      <c r="E43" s="3">
         <v>529400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>436200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>348900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>314200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>453500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>320300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>298700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>265600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>340500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>283600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>241500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>233800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>250300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>177400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>154200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>130500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>185200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>142700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>122100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>116200</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>11</v>
       </c>
@@ -3344,8 +3436,11 @@
       <c r="AC43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,74 +3522,77 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>86700</v>
+      </c>
+      <c r="E45" s="3">
         <v>70000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>68800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>79100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>80700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>63200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>67800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>61200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>65200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>48400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>47600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>52400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>51500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>37400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>38200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>39000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>39500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>30300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>28700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>27100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>30100</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>11</v>
       </c>
@@ -3510,74 +3608,77 @@
       <c r="AC45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1804100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1631000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1480400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1422800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1362500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1319600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1206600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1182800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1111400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1162300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>929800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>968000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1043200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>943900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>869400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>943500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>922100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>984500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1265500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>968100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>415700</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>11</v>
       </c>
@@ -3593,65 +3694,68 @@
       <c r="AC46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>120800</v>
+      </c>
+      <c r="E47" s="3">
         <v>186000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>129800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>133200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>94800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>94900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>89800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>64700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>95500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>93300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>77600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>67100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>141000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>240600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>259000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>181400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>186000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>164200</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>11</v>
       </c>
@@ -3667,8 +3771,8 @@
       <c r="Z47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AA47" s="3">
-        <v>0</v>
+      <c r="AA47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="AB47" s="3">
         <v>0</v>
@@ -3676,8 +3780,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3685,65 +3792,65 @@
         <v>341400</v>
       </c>
       <c r="E48" s="3">
+        <v>341400</v>
+      </c>
+      <c r="F48" s="3">
         <v>288300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>286700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>300300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>310700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>310400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>314600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>316300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>324400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>320000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>319000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>296300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>278100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>242500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>229400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>227500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>75800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>74000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>60400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>60100</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>11</v>
       </c>
@@ -3759,74 +3866,77 @@
       <c r="AC48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>418600</v>
+      </c>
+      <c r="E49" s="3">
         <v>423900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>427700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>434600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>441300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>453900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>458200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>465900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>466500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>472000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>476900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>485100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>245800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>251400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>255800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>260500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>264300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>269400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>273700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>45500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>47400</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y49" s="3" t="s">
         <v>11</v>
       </c>
@@ -3842,8 +3952,11 @@
       <c r="AC49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,74 +4124,77 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>445100</v>
+      </c>
+      <c r="E52" s="3">
         <v>430400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>405500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>390000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>375200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>362200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>345600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>327700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>307300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>284500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>246800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>214200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>195100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>177100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>159700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>147000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>138600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>121400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>106300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>95700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>91300</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>11</v>
       </c>
@@ -4091,8 +4210,11 @@
       <c r="AC52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,74 +4296,77 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3129900</v>
+      </c>
+      <c r="E54" s="3">
         <v>3012700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2731600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2667300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2574100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2541300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2410500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2355700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2297100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2336500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2051100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2053300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1921500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1891100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1786400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1761800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1738400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1615400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1719400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1169700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>614500</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>11</v>
       </c>
@@ -4257,8 +4382,11 @@
       <c r="AC54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,74 +4448,75 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E57" s="3">
         <v>24400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>47200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>44400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>26200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>52800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>47700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>33600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>37400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>32300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>33100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>21500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>28100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>29100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>23500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>21400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>19600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>22100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>16700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>13300</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y57" s="3" t="s">
         <v>11</v>
       </c>
@@ -4402,41 +4532,44 @@
       <c r="AC57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>724000</v>
+      </c>
+      <c r="E58" s="3">
         <v>722900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>36900</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>11500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>20500</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>11</v>
       </c>
@@ -4452,8 +4585,8 @@
       <c r="R58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -4485,74 +4618,77 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1456800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1461000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1365400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1357800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1317500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1318800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1201100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1174000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1069700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1035300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>890800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>821000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>708100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>665800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>559400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>550700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>501200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>496700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>412600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>372900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>349200</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>11</v>
       </c>
@@ -4568,74 +4704,77 @@
       <c r="AC59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2195500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2208300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1449500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1402200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1343700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1371600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1260400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1209600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1097900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1093200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>923100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>854000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>729600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>694000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>588500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>574100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>522600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>516300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>434600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>389600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>362500</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>11</v>
       </c>
@@ -4651,8 +4790,11 @@
       <c r="AC60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4660,59 +4802,59 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>684900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>720700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>719600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>718500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>718800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>730300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>742600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>696600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>486100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>479100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>472200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>465300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>458600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>451900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>445400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>438900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>432600</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4734,74 +4876,77 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>184900</v>
+      </c>
+      <c r="E62" s="3">
         <v>187100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>128700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>137300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>161900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>175600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>191700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>203900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>213400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>221000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>215800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>218300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>196900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>185500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>169900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>169100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>172700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>45800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>42100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>36600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>37900</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>11</v>
       </c>
@@ -4817,8 +4962,11 @@
       <c r="AC62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,74 +5220,77 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2380400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2395400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2263100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2260200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2225200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2265800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2170900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2143800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2053900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2010800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1625100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1551400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1398700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1344800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1217000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1195200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1140700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1001100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>909300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>426200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>400300</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>11</v>
       </c>
@@ -5149,8 +5306,11 @@
       <c r="AC66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5409,11 +5576,11 @@
         <v>0</v>
       </c>
       <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
         <v>547900</v>
       </c>
-      <c r="X70" s="3">
-        <v>0</v>
-      </c>
       <c r="Y70" s="3">
         <v>0</v>
       </c>
@@ -5429,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,74 +5682,77 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1638600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1598700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1603500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1535600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1465600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1438200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1407700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1402100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1376600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1380500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1308000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1249500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1185000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1137200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1089800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1043200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-974500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-928800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-862500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-809700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-773000</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>11</v>
       </c>
@@ -5595,8 +5768,11 @@
       <c r="AC72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,74 +6026,77 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>749500</v>
+      </c>
+      <c r="E76" s="3">
         <v>617300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>468500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>407100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>348900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>275500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>239600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>211900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>243200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>325700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>426000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>501900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>522800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>546300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>569400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>566700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>597700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>614400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>810200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>743500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-333700</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>11</v>
       </c>
@@ -5927,8 +6112,11 @@
       <c r="AC76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43131</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43039</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42947</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42855</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42766</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>500</v>
+      </c>
+      <c r="E81" s="3">
         <v>4900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-29900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-45100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-27400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-30400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-25500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-72400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-58500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-64600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-47800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-47400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-46600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-68600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-45700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-66200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-52800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-36700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-271000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-6700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-14900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-12400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-19700</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AC81" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,91 +6409,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E83" s="3">
         <v>22300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>21100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>21300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>20800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>20200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>21000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>17900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>14000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12300</v>
-      </c>
-      <c r="S83" s="3">
-        <v>12000</v>
       </c>
       <c r="T83" s="3">
         <v>12000</v>
       </c>
       <c r="U83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="V83" s="3">
         <v>10300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>7100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>8600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>8000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>8300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>7700</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AB83" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AC83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>233600</v>
+      </c>
+      <c r="E89" s="3">
         <v>137100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>52500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>120900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>196300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>87800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>105400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>177700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>135600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>62200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>57400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>118100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>59100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>45500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>26400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>45700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>34100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>22700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>15000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>32000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>11600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>12100</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AB89" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AC89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-24100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-21700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-17500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-18400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-26400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-12300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-14600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4300</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AB91" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AC91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-43500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-83300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-62500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-52800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-34400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-70500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-18800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>9700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-79300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>169700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>29300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-19100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-18200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-313500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-426400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-227400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-4600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3900</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AB94" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AC94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,253 +7761,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-15600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-48500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-35500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-73900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-65400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-142400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-113000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>143500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-95200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-81700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-25500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-31300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-19600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-13300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-181100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>498100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>530500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>5600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>4200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>8000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>7700</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AB100" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AC100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>10900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-6600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-2100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1700</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AB101" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AC101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>221600</v>
+      </c>
+      <c r="E102" s="3">
         <v>88800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>129900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-14700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-47100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>191100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-29300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-38000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>201000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>43400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-26300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-12200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-281500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-576300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>275300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>549400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>12400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>35300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>14500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>17600</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AB102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AC102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOCU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOCU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
   <si>
     <t>DOCU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43220</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43131</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43039</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42947</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42855</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42766</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>687700</v>
+      </c>
+      <c r="E8" s="3">
         <v>661400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>659600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>645500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>622200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>588700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>580800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>545500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>511800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>469100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>430900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>382900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>342200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>297000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>274900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>249500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>235600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>214000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>199700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>178400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>167000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>155800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>148900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>130600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>125500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>113500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>108400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>145600</v>
+      </c>
+      <c r="E9" s="3">
         <v>136500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>137400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>129500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>136700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>132400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>131500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>116000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>113800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>105200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>101600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>97800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>90600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>74000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>68100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>62000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>61200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>52000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>52700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>45100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>36400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>58300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>31500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>31200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>28500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>27100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>28900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>542100</v>
+      </c>
+      <c r="E10" s="3">
         <v>524900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>522200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>516000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>485500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>456300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>449300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>429500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>398000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>363900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>329300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>285100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>251600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>223000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>206800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>187500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>174400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>162000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>147000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>133300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>130600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>97500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>117400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>99400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>97000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>86400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>79500</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,94 +1086,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E12" s="3">
         <v>115400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>125900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>115900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>126500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>112200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>110700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>102600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>94700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>85400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>80100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>73400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>63800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>54200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>52100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>48800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>47500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>37200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>42900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>38400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>33800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>70900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>23400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>22500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>23800</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>22700</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>21300</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,44 +1262,47 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>800</v>
+      </c>
+      <c r="E14" s="3">
         <v>28800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>28100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="3">
         <v>1200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>3900</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="3">
         <v>33800</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1298,8 +1318,8 @@
       <c r="S14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1357,68 +1380,71 @@
       <c r="J15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="3">
         <v>3300</v>
-      </c>
-      <c r="L15" s="3">
-        <v>3400</v>
       </c>
       <c r="M15" s="3">
         <v>3400</v>
       </c>
       <c r="N15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O15" s="3">
         <v>4000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4300</v>
-      </c>
-      <c r="P15" s="3">
-        <v>2900</v>
       </c>
       <c r="Q15" s="3">
         <v>2900</v>
       </c>
       <c r="R15" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="S15" s="3">
         <v>3000</v>
       </c>
       <c r="T15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U15" s="3">
         <v>3100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>2300</v>
-      </c>
-      <c r="W15" s="3">
-        <v>800</v>
       </c>
       <c r="X15" s="3">
         <v>800</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z15" s="3">
+      <c r="Y15" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA15" s="3">
         <v>2500</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>700</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>800</v>
       </c>
-      <c r="AC15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AD15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>681100</v>
+      </c>
+      <c r="E17" s="3">
         <v>666000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>659900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>672900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>663300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>607900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>606000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>548800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>534500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>479800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>489500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>431400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>338900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>317200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>293500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>256400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>262400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>236800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>204800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>423400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>155100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>142900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>139300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>132800</v>
       </c>
-      <c r="AC17" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AD17" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-27400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-41100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-19200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-25200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-22700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-58600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-48500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-58600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-41900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-42300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-44000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-64700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-42400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-62700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-58400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-37800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-267600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-6200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-12300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-13800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-19300</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AD18" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,194 +1683,201 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E20" s="3">
         <v>12200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1000</v>
       </c>
       <c r="K20" s="3">
         <v>-1000</v>
       </c>
       <c r="L20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M20" s="3">
         <v>6000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-100</v>
       </c>
-      <c r="AC20" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AD20" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E21" s="3">
         <v>30500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>29400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-18900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>15900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>15300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-36100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-29300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-38100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-24100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-25400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-25500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-47900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-25200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-45800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-44700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-27600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-261200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>4200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-5300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-4000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-11700</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AD21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E22" s="3">
         <v>2000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1600</v>
       </c>
       <c r="H22" s="3">
         <v>1600</v>
@@ -1846,49 +1886,49 @@
         <v>1600</v>
       </c>
       <c r="J22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K22" s="3">
         <v>1500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1700</v>
       </c>
       <c r="L22" s="3">
         <v>1700</v>
       </c>
       <c r="M22" s="3">
-        <v>7800</v>
+        <v>1700</v>
       </c>
       <c r="N22" s="3">
         <v>7800</v>
       </c>
       <c r="O22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="P22" s="3">
         <v>7700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>7200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>7100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3500</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
       <c r="X22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="3">
         <v>200</v>
@@ -1903,185 +1943,194 @@
         <v>200</v>
       </c>
       <c r="AC22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AD22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E23" s="3">
         <v>5600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-28100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-41700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-25500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-29400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-25300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-63600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-56600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-63700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-45700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-46200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-45600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-67500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-44400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-64900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-58500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-34800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-270000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-13700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-11900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-19500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-22500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E24" s="3">
         <v>5100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1200</v>
-      </c>
-      <c r="T24" s="3">
-        <v>1300</v>
       </c>
       <c r="U24" s="3">
         <v>1300</v>
       </c>
       <c r="V24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W24" s="3">
         <v>-5700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-29900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-45100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-27400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-30400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-25500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-72400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-58500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-64600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-47800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-47400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-46600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-68600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-45700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-66200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-52800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-36700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-270700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-6400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-14500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-12000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-19400</v>
       </c>
-      <c r="AC26" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AD26" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-29900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-45100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-27400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-30400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-25500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-72400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-58500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-64600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-47800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-47400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-46600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-68600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-45700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-66200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-52800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-36700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-271000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-6700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-14900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-12400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-19700</v>
       </c>
-      <c r="AC27" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AD27" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-12200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2600</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1000</v>
       </c>
       <c r="K32" s="3">
         <v>1000</v>
       </c>
       <c r="L32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M32" s="3">
         <v>-6000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>100</v>
       </c>
-      <c r="AC32" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AD32" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-29900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-45100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-27400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-30400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-25500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-72400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-58500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-64600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-47800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-47400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-46600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-68600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-45700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-66200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-52800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-36700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-271000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-6700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-14900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-12400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-19700</v>
       </c>
-      <c r="AC33" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AD33" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-29900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-45100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-27400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-30400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-25500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-72400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-58500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-64600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-47800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-47400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-46600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-68600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-45700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-66200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-52800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-36700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-271000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-6700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-14900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-12400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-19700</v>
       </c>
-      <c r="AC35" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AD35" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43220</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43131</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43039</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42947</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42855</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42766</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,77 +3267,78 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1017800</v>
+      </c>
+      <c r="E41" s="3">
         <v>940500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>721900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>632600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>637200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>638200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>509100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>503900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>518600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>519000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>566100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>375000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>404300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>442200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>241200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>197700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>224300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>236500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>517800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1094100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>818800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>269400</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>11</v>
       </c>
@@ -3267,68 +3354,71 @@
       <c r="AD41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>426300</v>
+      </c>
+      <c r="E42" s="3">
         <v>350800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>309800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>342700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>357500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>329400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>293800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>314600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>304300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>261700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>207500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>223600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>269800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>315700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>414900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>456100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>526000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>515600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>251200</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>11</v>
       </c>
@@ -3344,8 +3434,8 @@
       <c r="AA42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AB42" s="3">
-        <v>0</v>
+      <c r="AB42" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="AC42" s="3">
         <v>0</v>
@@ -3353,77 +3443,80 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>430900</v>
+      </c>
+      <c r="E43" s="3">
         <v>426100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>529400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>436200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>348900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>314200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>453500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>320300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>298700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>265600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>340500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>283600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>241500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>233800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>250300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>177400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>154200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>130500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>185200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>142700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>122100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>116200</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z43" s="3" t="s">
         <v>11</v>
       </c>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,77 +3621,80 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>81500</v>
+      </c>
+      <c r="E45" s="3">
         <v>86700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>70000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>68800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>79100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>80700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>63200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>67800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>61200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>65200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>48400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>47600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>52400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>51500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>37400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>38200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>39000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>39500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>30300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>28700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>27100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>30100</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z45" s="3" t="s">
         <v>11</v>
       </c>
@@ -3611,77 +3710,80 @@
       <c r="AD45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1956500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1804100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1631000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1480400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1422800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1362500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1319600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1206600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1182800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1111400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1162300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>929800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>968000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1043200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>943900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>869400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>943500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>922100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>984500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1265500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>968100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>415700</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>11</v>
       </c>
@@ -3697,68 +3799,71 @@
       <c r="AD46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>85200</v>
+      </c>
+      <c r="E47" s="3">
         <v>120800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>186000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>129800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>133200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>94800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>94900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>89800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>64700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>95500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>93300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>77600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>67100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>141000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>240600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>259000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>181400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>186000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>164200</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>11</v>
       </c>
@@ -3774,8 +3879,8 @@
       <c r="AA47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AB47" s="3">
-        <v>0</v>
+      <c r="AB47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="AC47" s="3">
         <v>0</v>
@@ -3783,77 +3888,80 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>341400</v>
+        <v>352300</v>
       </c>
       <c r="E48" s="3">
         <v>341400</v>
       </c>
       <c r="F48" s="3">
+        <v>341400</v>
+      </c>
+      <c r="G48" s="3">
         <v>288300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>286700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>300300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>310700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>310400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>314600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>316300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>324400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>320000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>319000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>296300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>278100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>242500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>229400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>227500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>75800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>74000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>60400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>60100</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>11</v>
       </c>
@@ -3869,77 +3977,80 @@
       <c r="AD48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>413600</v>
+      </c>
+      <c r="E49" s="3">
         <v>418600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>423900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>427700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>434600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>441300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>453900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>458200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>465900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>466500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>472000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>476900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>485100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>245800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>251400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>255800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>260500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>264300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>269400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>273700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>45500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>47400</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z49" s="3" t="s">
         <v>11</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,77 +4244,80 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>459800</v>
+      </c>
+      <c r="E52" s="3">
         <v>445100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>430400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>405500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>390000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>375200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>362200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>345600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>327700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>307300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>284500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>246800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>214200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>195100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>177100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>159700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>147000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>138600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>121400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>106300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>95700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>91300</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>11</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,77 +4422,80 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3267400</v>
+      </c>
+      <c r="E54" s="3">
         <v>3129900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3012700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2731600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2667300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2574100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2541300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2410500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2355700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2297100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2336500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2051100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2053300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1921500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1891100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1786400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1761800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1738400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1615400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1719400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1169700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>614500</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>11</v>
       </c>
@@ -4385,8 +4511,11 @@
       <c r="AD54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,77 +4579,78 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E57" s="3">
         <v>14700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>24400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>47200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>44400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>26200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>52800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>47700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>37400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>32300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>33100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>21500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>28100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>29100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>23500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>21400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>19600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>22100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>16700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>13300</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>11</v>
       </c>
@@ -4535,44 +4666,47 @@
       <c r="AD57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>725100</v>
+      </c>
+      <c r="E58" s="3">
         <v>724000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>722900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>36900</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>11500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>20500</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>11</v>
       </c>
@@ -4588,8 +4722,8 @@
       <c r="S58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4621,77 +4755,80 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1503100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1456800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1461000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1365400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1357800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1317500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1318800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1201100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1174000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1069700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1035300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>890800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>821000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>708100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>665800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>559400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>550700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>501200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>496700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>412600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>372900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>349200</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>11</v>
       </c>
@@ -4707,77 +4844,80 @@
       <c r="AD59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2234000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2195500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2208300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1449500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1402200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1343700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1371600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1260400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1209600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1097900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1093200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>923100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>854000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>729600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>694000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>588500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>574100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>522600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>516300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>434600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>389600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>362500</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>11</v>
       </c>
@@ -4793,8 +4933,11 @@
       <c r="AD60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4805,59 +4948,59 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>684900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>720700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>719600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>718500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>718800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>730300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>742600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>696600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>486100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>479100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>472200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>465300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>458600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>451900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>445400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>438900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>432600</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4879,77 +5022,80 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>185700</v>
+      </c>
+      <c r="E62" s="3">
         <v>184900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>187100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>128700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>137300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>161900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>175600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>191700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>203900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>213400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>221000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>215800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>218300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>196900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>185500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>169900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>169100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>172700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>45800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>42100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>36600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>37900</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>11</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,77 +5378,80 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2419600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2380400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2395400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2263100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2260200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2225200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2265800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2170900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2143800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2053900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2010800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1625100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1551400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1398700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1344800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1217000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1195200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1140700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1001100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>909300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>426200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>400300</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>11</v>
       </c>
@@ -5309,8 +5467,11 @@
       <c r="AD66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5579,11 +5747,11 @@
         <v>0</v>
       </c>
       <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
         <v>547900</v>
       </c>
-      <c r="Y70" s="3">
-        <v>0</v>
-      </c>
       <c r="Z70" s="3">
         <v>0</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,77 +5856,80 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1661200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1638600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1598700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1603500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1535600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1465600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1438200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1407700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1402100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1376600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1380500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1308000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1249500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1185000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1137200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1089800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1043200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-974500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-928800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-862500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-809700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-773000</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>11</v>
       </c>
@@ -5771,8 +5945,11 @@
       <c r="AD72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,77 +6212,80 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>847800</v>
+      </c>
+      <c r="E76" s="3">
         <v>749500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>617300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>468500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>407100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>348900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>275500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>239600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>211900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>243200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>325700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>426000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>501900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>522800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>546300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>569400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>566700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>597700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>614400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>810200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>743500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-333700</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>11</v>
       </c>
@@ -6115,8 +6301,11 @@
       <c r="AD76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43220</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43131</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43039</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42947</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42855</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42766</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-29900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-45100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-27400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-30400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-25500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-72400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-58500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-64600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-47800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-47400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-46600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-68600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-45700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-66200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-52800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-36700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-271000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-6700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-14900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-12400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-19700</v>
       </c>
-      <c r="AC81" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AD81" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E83" s="3">
         <v>22900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>22300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>21500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>21100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>20800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>20200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>17900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>14000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>12300</v>
-      </c>
-      <c r="T83" s="3">
-        <v>12000</v>
       </c>
       <c r="U83" s="3">
         <v>12000</v>
       </c>
       <c r="V83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="W83" s="3">
         <v>10300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>7100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>8600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>8000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>8300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>7700</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AC83" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AD83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E89" s="3">
         <v>233600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>137100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>52500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>120900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>196300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>87800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>105400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>177700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>135600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>62200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>57400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>118100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>59100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>45500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>26400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>45700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>34100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>22700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>15000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>32000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>11600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>12100</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AC89" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AD89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-24100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-16500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-21700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-17500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-18300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-19400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-18400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-26400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-30000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-12300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-14600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-15200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-11300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-8600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-4300</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AC91" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AD91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="E94" s="3">
         <v>7800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-43500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-83300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-62500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-52800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-34400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-70500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-18800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>9700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-79300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>169700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>29300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-19100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-18200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-313500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-426400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-227400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-4600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-3900</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AC94" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AD94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-69300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-20900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-15600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-48500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-35500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-73900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-65400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-142400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-113000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>143500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-95200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-81700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-25500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-31300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-19600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-13300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-181100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>498100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>530500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>5600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>4200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>8000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>7700</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AC100" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AD100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>10900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-6600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1700</v>
       </c>
-      <c r="AB101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AC101" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AD101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>78200</v>
+      </c>
+      <c r="E102" s="3">
         <v>221600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>88800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>129900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-14700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-47100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>191100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-29300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-38000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>201000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>43400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-26300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-12200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-281500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-576300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>275300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>549400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>12400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>35300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>14500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>17600</v>
       </c>
-      <c r="AB102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AC102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AD102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE102" s="3" t="s">
         <v>11</v>
       </c>
     </row>
